--- a/REC_SPREAD.xlsx
+++ b/REC_SPREAD.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Date</t>
   </si>
@@ -26,12 +26,6 @@
   </si>
   <si>
     <t>PJM VA RY24 [BGC]</t>
-  </si>
-  <si>
-    <t>RollingMean</t>
-  </si>
-  <si>
-    <t>RollingStd</t>
   </si>
   <si>
     <t>SpreadDiff</t>
@@ -405,13 +399,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J320"/>
+  <dimension ref="A1:H320"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -433,14 +427,8 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>325</v>
       </c>
@@ -457,7 +445,7 @@
         <v>32.375</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>318</v>
       </c>
@@ -473,17 +461,17 @@
       <c r="E3">
         <v>32.375</v>
       </c>
+      <c r="F3">
+        <v>-0.25</v>
+      </c>
+      <c r="G3">
+        <v>-0.04651162790706328</v>
+      </c>
       <c r="H3">
-        <v>-0.25</v>
-      </c>
-      <c r="I3">
-        <v>-0.04651162790706328</v>
-      </c>
-      <c r="J3">
         <v>-0.04762804898934541</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>317</v>
       </c>
@@ -499,17 +487,17 @@
       <c r="E4">
         <v>32.375</v>
       </c>
+      <c r="F4">
+        <v>-0.75</v>
+      </c>
+      <c r="G4">
+        <v>-0.1463414634149197</v>
+      </c>
       <c r="H4">
-        <v>-0.75</v>
-      </c>
-      <c r="I4">
-        <v>-0.1463414634149197</v>
-      </c>
-      <c r="J4">
         <v>-0.1582240052152286</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>316</v>
       </c>
@@ -525,17 +513,17 @@
       <c r="E5">
         <v>32.375</v>
       </c>
+      <c r="F5">
+        <v>-0.25</v>
+      </c>
+      <c r="G5">
+        <v>-0.05714285714298775</v>
+      </c>
       <c r="H5">
-        <v>-0.25</v>
-      </c>
-      <c r="I5">
-        <v>-0.05714285714298775</v>
-      </c>
-      <c r="J5">
         <v>-0.05884050002307194</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>315</v>
       </c>
@@ -551,17 +539,17 @@
       <c r="E6">
         <v>32.375</v>
       </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
       <c r="H6">
         <v>0</v>
       </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1">
         <v>314</v>
       </c>
@@ -577,17 +565,17 @@
       <c r="E7">
         <v>32.875</v>
       </c>
+      <c r="F7">
+        <v>-0.5</v>
+      </c>
+      <c r="G7">
+        <v>-0.1212121212124151</v>
+      </c>
       <c r="H7">
-        <v>-0.5</v>
-      </c>
-      <c r="I7">
-        <v>-0.1212121212124151</v>
-      </c>
-      <c r="J7">
         <v>-0.1292117314803406</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:8">
       <c r="A8" s="1">
         <v>313</v>
       </c>
@@ -603,17 +591,17 @@
       <c r="E8">
         <v>32.875</v>
       </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>0.2758620689662782</v>
+      </c>
       <c r="H8">
-        <v>1</v>
-      </c>
-      <c r="I8">
-        <v>0.2758620689662782</v>
-      </c>
-      <c r="J8">
         <v>0.2436220826583469</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:8">
       <c r="A9" s="1">
         <v>312</v>
       </c>
@@ -629,17 +617,17 @@
       <c r="E9">
         <v>34.125</v>
       </c>
+      <c r="F9">
+        <v>-1.25</v>
+      </c>
+      <c r="G9">
+        <v>-0.2702702702708547</v>
+      </c>
       <c r="H9">
-        <v>-1.25</v>
-      </c>
-      <c r="I9">
-        <v>-0.2702702702708547</v>
-      </c>
-      <c r="J9">
         <v>-0.3150810466406961</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:8">
       <c r="A10" s="1">
         <v>311</v>
       </c>
@@ -655,17 +643,17 @@
       <c r="E10">
         <v>34.125</v>
       </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
       <c r="H10">
         <v>0</v>
       </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1">
         <v>310</v>
       </c>
@@ -682,22 +670,16 @@
         <v>34.125</v>
       </c>
       <c r="F11">
-        <v>4.149999999989999</v>
+        <v>0</v>
       </c>
       <c r="G11">
-        <v>0.7307720422797916</v>
+        <v>0</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
-      <c r="I11">
-        <v>0</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1">
         <v>309</v>
       </c>
@@ -714,22 +696,16 @@
         <v>34.125</v>
       </c>
       <c r="F12">
-        <v>3.94999999999</v>
+        <v>0</v>
       </c>
       <c r="G12">
-        <v>0.6241661103691332</v>
+        <v>0</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
-      <c r="I12">
-        <v>0</v>
-      </c>
-      <c r="J12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1">
         <v>308</v>
       </c>
@@ -746,22 +722,16 @@
         <v>34.125</v>
       </c>
       <c r="F13">
-        <v>3.77499999999</v>
+        <v>0</v>
       </c>
       <c r="G13">
-        <v>0.4887626099538388</v>
+        <v>0</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
-      <c r="I13">
-        <v>0</v>
-      </c>
-      <c r="J13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1">
         <v>307</v>
       </c>
@@ -778,22 +748,16 @@
         <v>34.125</v>
       </c>
       <c r="F14">
-        <v>3.67499999999</v>
+        <v>0</v>
       </c>
       <c r="G14">
-        <v>0.4533823502911808</v>
+        <v>0</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
-      <c r="I14">
-        <v>0</v>
-      </c>
-      <c r="J14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10">
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1">
         <v>306</v>
       </c>
@@ -810,22 +774,16 @@
         <v>34.125</v>
       </c>
       <c r="F15">
-        <v>3.64999999999</v>
+        <v>0.5</v>
       </c>
       <c r="G15">
-        <v>0.4322100826629974</v>
+        <v>0.1481481481485871</v>
       </c>
       <c r="H15">
-        <v>0.5</v>
-      </c>
-      <c r="I15">
-        <v>0.1481481481485871</v>
-      </c>
-      <c r="J15">
         <v>0.1381503384811995</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:8">
       <c r="A16" s="1">
         <v>305</v>
       </c>
@@ -842,22 +800,16 @@
         <v>34.125</v>
       </c>
       <c r="F16">
-        <v>3.69999999999</v>
+        <v>0.75</v>
       </c>
       <c r="G16">
-        <v>0.5143766454003649</v>
+        <v>0.1935483870972737</v>
       </c>
       <c r="H16">
-        <v>0.75</v>
-      </c>
-      <c r="I16">
-        <v>0.1935483870972737</v>
-      </c>
-      <c r="J16">
         <v>0.1769307081594966</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:8">
       <c r="A17" s="1">
         <v>304</v>
       </c>
@@ -874,22 +826,16 @@
         <v>34.125</v>
       </c>
       <c r="F17">
-        <v>3.83749999999</v>
+        <v>0.375</v>
       </c>
       <c r="G17">
-        <v>0.6562996013000968</v>
+        <v>0.08108108108125639</v>
       </c>
       <c r="H17">
-        <v>0.375</v>
-      </c>
-      <c r="I17">
-        <v>0.08108108108125639</v>
-      </c>
-      <c r="J17">
         <v>0.07796154146987397</v>
       </c>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:8">
       <c r="A18" s="1">
         <v>303</v>
       </c>
@@ -906,22 +852,16 @@
         <v>34.125</v>
       </c>
       <c r="F18">
-        <v>3.87499999999</v>
+        <v>0</v>
       </c>
       <c r="G18">
-        <v>0.7144345083117598</v>
+        <v>0</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
-      <c r="I18">
-        <v>0</v>
-      </c>
-      <c r="J18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10">
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1">
         <v>302</v>
       </c>
@@ -938,22 +878,16 @@
         <v>34.125</v>
       </c>
       <c r="F19">
-        <v>4.03749999999</v>
+        <v>0</v>
       </c>
       <c r="G19">
-        <v>0.7706643959020749</v>
+        <v>0</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
-      <c r="I19">
-        <v>0</v>
-      </c>
-      <c r="J19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10">
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1">
         <v>301</v>
       </c>
@@ -970,22 +904,16 @@
         <v>34.125</v>
       </c>
       <c r="F20">
-        <v>4.18749999999</v>
+        <v>-0.125</v>
       </c>
       <c r="G20">
-        <v>0.7733629663862737</v>
+        <v>-0.02500000000005</v>
       </c>
       <c r="H20">
-        <v>-0.125</v>
-      </c>
-      <c r="I20">
-        <v>-0.02500000000005</v>
-      </c>
-      <c r="J20">
         <v>-0.02531780798434114</v>
       </c>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:8">
       <c r="A21" s="1">
         <v>300</v>
       </c>
@@ -1002,22 +930,16 @@
         <v>34.125</v>
       </c>
       <c r="F21">
-        <v>4.23749999999</v>
+        <v>-1</v>
       </c>
       <c r="G21">
-        <v>0.7299400660328208</v>
+        <v>-0.2051282051286259</v>
       </c>
       <c r="H21">
-        <v>-1</v>
-      </c>
-      <c r="I21">
-        <v>-0.2051282051286259</v>
-      </c>
-      <c r="J21">
         <v>-0.2295744416450295</v>
       </c>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:8">
       <c r="A22" s="1">
         <v>299</v>
       </c>
@@ -1034,22 +956,16 @@
         <v>34.125</v>
       </c>
       <c r="F22">
-        <v>4.28749999999</v>
+        <v>0</v>
       </c>
       <c r="G22">
-        <v>0.6796904932884271</v>
+        <v>0</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
-      <c r="I22">
-        <v>0</v>
-      </c>
-      <c r="J22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10">
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1">
         <v>298</v>
       </c>
@@ -1066,22 +982,16 @@
         <v>34.125</v>
       </c>
       <c r="F23">
-        <v>4.33749999999</v>
+        <v>0</v>
       </c>
       <c r="G23">
-        <v>0.6209591595087204</v>
+        <v>0</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
-      <c r="I23">
-        <v>0</v>
-      </c>
-      <c r="J23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10">
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1">
         <v>297</v>
       </c>
@@ -1098,22 +1008,16 @@
         <v>34.125</v>
       </c>
       <c r="F24">
-        <v>4.38749999999</v>
+        <v>0</v>
       </c>
       <c r="G24">
-        <v>0.551040682103719</v>
+        <v>0</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
-      <c r="I24">
-        <v>0</v>
-      </c>
-      <c r="J24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10">
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1">
         <v>296</v>
       </c>
@@ -1130,22 +1034,16 @@
         <v>34.125</v>
       </c>
       <c r="F25">
-        <v>4.38749999999</v>
+        <v>0</v>
       </c>
       <c r="G25">
-        <v>0.551040682103719</v>
+        <v>0</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
-      <c r="I25">
-        <v>0</v>
-      </c>
-      <c r="J25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10">
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1">
         <v>295</v>
       </c>
@@ -1162,22 +1060,16 @@
         <v>34.125</v>
       </c>
       <c r="F26">
-        <v>4.312499999990001</v>
+        <v>0</v>
       </c>
       <c r="G26">
-        <v>0.5659615711335874</v>
+        <v>0</v>
       </c>
       <c r="H26">
         <v>0</v>
       </c>
-      <c r="I26">
-        <v>0</v>
-      </c>
-      <c r="J26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10">
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1">
         <v>294</v>
       </c>
@@ -1194,22 +1086,16 @@
         <v>34.125</v>
       </c>
       <c r="F27">
-        <v>4.22499999999</v>
+        <v>0.25</v>
       </c>
       <c r="G27">
-        <v>0.5130247990540451</v>
+        <v>0.06451612903242455</v>
       </c>
       <c r="H27">
-        <v>0.25</v>
-      </c>
-      <c r="I27">
-        <v>0.06451612903242455</v>
-      </c>
-      <c r="J27">
         <v>0.06252035698149037</v>
       </c>
     </row>
-    <row r="28" spans="1:10">
+    <row r="28" spans="1:8">
       <c r="A28" s="1">
         <v>293</v>
       </c>
@@ -1226,22 +1112,16 @@
         <v>34.125</v>
       </c>
       <c r="F28">
-        <v>4.13749999999</v>
+        <v>0</v>
       </c>
       <c r="G28">
-        <v>0.4348131782731512</v>
+        <v>0</v>
       </c>
       <c r="H28">
         <v>0</v>
       </c>
-      <c r="I28">
-        <v>0</v>
-      </c>
-      <c r="J28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10">
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1">
         <v>292</v>
       </c>
@@ -1258,22 +1138,16 @@
         <v>34.125</v>
       </c>
       <c r="F29">
-        <v>4.04999999999</v>
+        <v>0</v>
       </c>
       <c r="G29">
-        <v>0.3129163892586421</v>
+        <v>0</v>
       </c>
       <c r="H29">
         <v>0</v>
       </c>
-      <c r="I29">
-        <v>0</v>
-      </c>
-      <c r="J29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10">
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1">
         <v>291</v>
       </c>
@@ -1290,22 +1164,16 @@
         <v>34.125</v>
       </c>
       <c r="F30">
-        <v>3.97499999999</v>
+        <v>0</v>
       </c>
       <c r="G30">
-        <v>0.1290994448735786</v>
+        <v>0</v>
       </c>
       <c r="H30">
         <v>0</v>
       </c>
-      <c r="I30">
-        <v>0</v>
-      </c>
-      <c r="J30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10">
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1">
         <v>290</v>
       </c>
@@ -1322,22 +1190,16 @@
         <v>34.5</v>
       </c>
       <c r="F31">
-        <v>3.887499999990001</v>
+        <v>-1.125</v>
       </c>
       <c r="G31">
-        <v>0.3356689010187132</v>
+        <v>-0.2727272727279339</v>
       </c>
       <c r="H31">
-        <v>-1.125</v>
-      </c>
-      <c r="I31">
-        <v>-0.2727272727279339</v>
-      </c>
-      <c r="J31">
         <v>-0.3184537311194438</v>
       </c>
     </row>
-    <row r="32" spans="1:10">
+    <row r="32" spans="1:8">
       <c r="A32" s="1">
         <v>289</v>
       </c>
@@ -1354,22 +1216,16 @@
         <v>34.25</v>
       </c>
       <c r="F32">
-        <v>3.82499999999</v>
+        <v>0.25</v>
       </c>
       <c r="G32">
-        <v>0.3917553091181049</v>
+        <v>0.08333333333361111</v>
       </c>
       <c r="H32">
-        <v>0.25</v>
-      </c>
-      <c r="I32">
-        <v>0.08333333333361111</v>
-      </c>
-      <c r="J32">
         <v>0.08004270767379276</v>
       </c>
     </row>
-    <row r="33" spans="1:10">
+    <row r="33" spans="1:8">
       <c r="A33" s="1">
         <v>288</v>
       </c>
@@ -1386,22 +1242,16 @@
         <v>34.25</v>
       </c>
       <c r="F33">
-        <v>3.73749999999</v>
+        <v>-0.25</v>
       </c>
       <c r="G33">
-        <v>0.4693745838879645</v>
+        <v>-0.07692307692331361</v>
       </c>
       <c r="H33">
-        <v>-0.25</v>
-      </c>
-      <c r="I33">
-        <v>-0.07692307692331361</v>
-      </c>
-      <c r="J33">
         <v>-0.08004270767379279</v>
       </c>
     </row>
-    <row r="34" spans="1:10">
+    <row r="34" spans="1:8">
       <c r="A34" s="1">
         <v>287</v>
       </c>
@@ -1418,22 +1268,16 @@
         <v>34.25</v>
       </c>
       <c r="F34">
-        <v>3.64999999999</v>
+        <v>0</v>
       </c>
       <c r="G34">
-        <v>0.5197488709837558</v>
+        <v>0</v>
       </c>
       <c r="H34">
         <v>0</v>
       </c>
-      <c r="I34">
-        <v>0</v>
-      </c>
-      <c r="J34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10">
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1">
         <v>286</v>
       </c>
@@ -1450,22 +1294,16 @@
         <v>34.25</v>
       </c>
       <c r="F35">
-        <v>3.61249999999</v>
+        <v>0.5</v>
       </c>
       <c r="G35">
-        <v>0.5152197481549877</v>
+        <v>0.1666666666672222</v>
       </c>
       <c r="H35">
-        <v>0.5</v>
-      </c>
-      <c r="I35">
-        <v>0.1666666666672222</v>
-      </c>
-      <c r="J35">
         <v>0.1541506798277346</v>
       </c>
     </row>
-    <row r="36" spans="1:10">
+    <row r="36" spans="1:8">
       <c r="A36" s="1">
         <v>285</v>
       </c>
@@ -1482,22 +1320,16 @@
         <v>34.25</v>
       </c>
       <c r="F36">
-        <v>3.57499999999</v>
+        <v>0</v>
       </c>
       <c r="G36">
-        <v>0.5075814110947021</v>
+        <v>0</v>
       </c>
       <c r="H36">
         <v>0</v>
       </c>
-      <c r="I36">
-        <v>0</v>
-      </c>
-      <c r="J36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10">
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1">
         <v>284</v>
       </c>
@@ -1514,22 +1346,16 @@
         <v>34.25</v>
       </c>
       <c r="F37">
-        <v>3.51249999999</v>
+        <v>0</v>
       </c>
       <c r="G37">
-        <v>0.4693745838879648</v>
+        <v>0</v>
       </c>
       <c r="H37">
         <v>0</v>
       </c>
-      <c r="I37">
-        <v>0</v>
-      </c>
-      <c r="J37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10">
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1">
         <v>283</v>
       </c>
@@ -1546,22 +1372,16 @@
         <v>34</v>
       </c>
       <c r="F38">
-        <v>3.47499999999</v>
+        <v>0.25</v>
       </c>
       <c r="G38">
-        <v>0.4281744192888379</v>
+        <v>0.07142857142877551</v>
       </c>
       <c r="H38">
-        <v>0.25</v>
-      </c>
-      <c r="I38">
-        <v>0.07142857142877551</v>
-      </c>
-      <c r="J38">
         <v>0.06899287148714188</v>
       </c>
     </row>
-    <row r="39" spans="1:10">
+    <row r="39" spans="1:8">
       <c r="A39" s="1">
         <v>282</v>
       </c>
@@ -1578,22 +1398,16 @@
         <v>34</v>
       </c>
       <c r="F39">
-        <v>3.43749999999</v>
+        <v>0</v>
       </c>
       <c r="G39">
-        <v>0.3784562942621867</v>
+        <v>0</v>
       </c>
       <c r="H39">
         <v>0</v>
       </c>
-      <c r="I39">
-        <v>0</v>
-      </c>
-      <c r="J39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10">
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1">
         <v>281</v>
       </c>
@@ -1610,22 +1424,16 @@
         <v>34</v>
       </c>
       <c r="F40">
-        <v>3.39999999999</v>
+        <v>0</v>
       </c>
       <c r="G40">
-        <v>0.3162277660168384</v>
+        <v>0</v>
       </c>
       <c r="H40">
         <v>0</v>
       </c>
-      <c r="I40">
-        <v>0</v>
-      </c>
-      <c r="J40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10">
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1">
         <v>280</v>
       </c>
@@ -1642,22 +1450,16 @@
         <v>34</v>
       </c>
       <c r="F41">
-        <v>3.47499999999</v>
+        <v>0</v>
       </c>
       <c r="G41">
-        <v>0.2993047499344664</v>
+        <v>0</v>
       </c>
       <c r="H41">
         <v>0</v>
       </c>
-      <c r="I41">
-        <v>0</v>
-      </c>
-      <c r="J41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10">
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1">
         <v>279</v>
       </c>
@@ -1674,22 +1476,16 @@
         <v>34</v>
       </c>
       <c r="F42">
-        <v>3.52499999999</v>
+        <v>0</v>
       </c>
       <c r="G42">
-        <v>0.2993047499344662</v>
+        <v>0</v>
       </c>
       <c r="H42">
         <v>0</v>
       </c>
-      <c r="I42">
-        <v>0</v>
-      </c>
-      <c r="J42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10">
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1">
         <v>278</v>
       </c>
@@ -1706,22 +1502,16 @@
         <v>34</v>
       </c>
       <c r="F43">
-        <v>3.599999999990001</v>
+        <v>0</v>
       </c>
       <c r="G43">
-        <v>0.2415229457698237</v>
+        <v>0</v>
       </c>
       <c r="H43">
         <v>0</v>
       </c>
-      <c r="I43">
-        <v>0</v>
-      </c>
-      <c r="J43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10">
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1">
         <v>277</v>
       </c>
@@ -1738,22 +1528,16 @@
         <v>34</v>
       </c>
       <c r="F44">
-        <v>3.67499999999</v>
+        <v>0</v>
       </c>
       <c r="G44">
-        <v>0.1207614728849108</v>
+        <v>0</v>
       </c>
       <c r="H44">
         <v>0</v>
       </c>
-      <c r="I44">
-        <v>0</v>
-      </c>
-      <c r="J44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10">
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1">
         <v>276</v>
       </c>
@@ -1770,22 +1554,16 @@
         <v>34</v>
       </c>
       <c r="F45">
-        <v>3.69999999999</v>
+        <v>0</v>
       </c>
       <c r="G45">
-        <v>0.1054092553389443</v>
+        <v>0</v>
       </c>
       <c r="H45">
         <v>0</v>
       </c>
-      <c r="I45">
-        <v>0</v>
-      </c>
-      <c r="J45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10">
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1">
         <v>275</v>
       </c>
@@ -1802,22 +1580,16 @@
         <v>34</v>
       </c>
       <c r="F46">
-        <v>3.724999999990001</v>
+        <v>0</v>
       </c>
       <c r="G46">
-        <v>0.07905694150420693</v>
+        <v>0</v>
       </c>
       <c r="H46">
         <v>0</v>
       </c>
-      <c r="I46">
-        <v>0</v>
-      </c>
-      <c r="J46">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10">
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1">
         <v>274</v>
       </c>
@@ -1834,7 +1606,7 @@
         <v>34</v>
       </c>
       <c r="F47">
-        <v>3.74999999999</v>
+        <v>0</v>
       </c>
       <c r="G47">
         <v>0</v>
@@ -1842,14 +1614,8 @@
       <c r="H47">
         <v>0</v>
       </c>
-      <c r="I47">
-        <v>0</v>
-      </c>
-      <c r="J47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10">
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1">
         <v>273</v>
       </c>
@@ -1866,22 +1632,16 @@
         <v>34.5</v>
       </c>
       <c r="F48">
-        <v>3.67499999999</v>
+        <v>-0.75</v>
       </c>
       <c r="G48">
-        <v>0.2371708245126277</v>
+        <v>-0.2000000000005333</v>
       </c>
       <c r="H48">
-        <v>-0.75</v>
-      </c>
-      <c r="I48">
-        <v>-0.2000000000005333</v>
-      </c>
-      <c r="J48">
         <v>-0.2231435513148764</v>
       </c>
     </row>
-    <row r="49" spans="1:10">
+    <row r="49" spans="1:8">
       <c r="A49" s="1">
         <v>272</v>
       </c>
@@ -1898,22 +1658,16 @@
         <v>35.175</v>
       </c>
       <c r="F49">
-        <v>3.53249999999</v>
+        <v>-0.6749999999999972</v>
       </c>
       <c r="G49">
-        <v>0.4853478134286783</v>
+        <v>-0.225000000000749</v>
       </c>
       <c r="H49">
-        <v>-0.6749999999999972</v>
-      </c>
-      <c r="I49">
-        <v>-0.225000000000749</v>
-      </c>
-      <c r="J49">
         <v>-0.2548922496297565</v>
       </c>
     </row>
-    <row r="50" spans="1:10">
+    <row r="50" spans="1:8">
       <c r="A50" s="1">
         <v>271</v>
       </c>
@@ -1930,22 +1684,16 @@
         <v>34.5</v>
       </c>
       <c r="F50">
-        <v>3.45749999999</v>
+        <v>0.6749999999999972</v>
       </c>
       <c r="G50">
-        <v>0.5055318981033732</v>
+        <v>0.2903225806464084</v>
       </c>
       <c r="H50">
-        <v>0.6749999999999972</v>
-      </c>
-      <c r="I50">
-        <v>0.2903225806464084</v>
-      </c>
-      <c r="J50">
         <v>0.2548922496297567</v>
       </c>
     </row>
-    <row r="51" spans="1:10">
+    <row r="51" spans="1:8">
       <c r="A51" s="1">
         <v>270</v>
       </c>
@@ -1962,22 +1710,16 @@
         <v>34.5</v>
       </c>
       <c r="F51">
-        <v>3.38249999999</v>
+        <v>0</v>
       </c>
       <c r="G51">
-        <v>0.5128961883266433</v>
+        <v>0</v>
       </c>
       <c r="H51">
         <v>0</v>
       </c>
-      <c r="I51">
-        <v>0</v>
-      </c>
-      <c r="J51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10">
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1">
         <v>269</v>
       </c>
@@ -1994,22 +1736,16 @@
         <v>34.5</v>
       </c>
       <c r="F52">
-        <v>3.30749999999</v>
+        <v>0</v>
       </c>
       <c r="G52">
-        <v>0.5079985236199017</v>
+        <v>0</v>
       </c>
       <c r="H52">
         <v>0</v>
       </c>
-      <c r="I52">
-        <v>0</v>
-      </c>
-      <c r="J52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10">
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1">
         <v>268</v>
       </c>
@@ -2026,22 +1762,16 @@
         <v>34.5</v>
       </c>
       <c r="F53">
-        <v>3.23249999999</v>
+        <v>0</v>
       </c>
       <c r="G53">
-        <v>0.490471711722501</v>
+        <v>0</v>
       </c>
       <c r="H53">
         <v>0</v>
       </c>
-      <c r="I53">
-        <v>0</v>
-      </c>
-      <c r="J53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10">
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1">
         <v>267</v>
       </c>
@@ -2058,22 +1788,16 @@
         <v>34.5</v>
       </c>
       <c r="F54">
-        <v>3.15749999999</v>
+        <v>0</v>
       </c>
       <c r="G54">
-        <v>0.4588708968762353</v>
+        <v>0</v>
       </c>
       <c r="H54">
         <v>0</v>
       </c>
-      <c r="I54">
-        <v>0</v>
-      </c>
-      <c r="J54">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10">
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1">
         <v>266</v>
       </c>
@@ -2090,22 +1814,16 @@
         <v>34.5</v>
       </c>
       <c r="F55">
-        <v>3.08249999999</v>
+        <v>0</v>
       </c>
       <c r="G55">
-        <v>0.4099542657419252</v>
+        <v>0</v>
       </c>
       <c r="H55">
         <v>0</v>
       </c>
-      <c r="I55">
-        <v>0</v>
-      </c>
-      <c r="J55">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10">
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1">
         <v>265</v>
       </c>
@@ -2122,22 +1840,16 @@
         <v>34.5</v>
       </c>
       <c r="F56">
-        <v>3.00749999999</v>
+        <v>0</v>
       </c>
       <c r="G56">
-        <v>0.3362476765719006</v>
+        <v>0</v>
       </c>
       <c r="H56">
         <v>0</v>
       </c>
-      <c r="I56">
-        <v>0</v>
-      </c>
-      <c r="J56">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10">
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1">
         <v>264</v>
       </c>
@@ -2154,22 +1866,16 @@
         <v>34.5</v>
       </c>
       <c r="F57">
-        <v>2.932499999990001</v>
+        <v>0</v>
       </c>
       <c r="G57">
-        <v>0.2134537420613702</v>
+        <v>0</v>
       </c>
       <c r="H57">
         <v>0</v>
       </c>
-      <c r="I57">
-        <v>0</v>
-      </c>
-      <c r="J57">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10">
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1">
         <v>263</v>
       </c>
@@ -2186,22 +1892,16 @@
         <v>34.5</v>
       </c>
       <c r="F58">
-        <v>2.93249999999</v>
+        <v>0</v>
       </c>
       <c r="G58">
-        <v>0.2134537420613702</v>
+        <v>0</v>
       </c>
       <c r="H58">
         <v>0</v>
       </c>
-      <c r="I58">
-        <v>0</v>
-      </c>
-      <c r="J58">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10">
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1">
         <v>262</v>
       </c>
@@ -2218,7 +1918,7 @@
         <v>34.75</v>
       </c>
       <c r="F59">
-        <v>2.99999999999</v>
+        <v>0</v>
       </c>
       <c r="G59">
         <v>0</v>
@@ -2226,14 +1926,8 @@
       <c r="H59">
         <v>0</v>
       </c>
-      <c r="I59">
-        <v>0</v>
-      </c>
-      <c r="J59">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10">
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1">
         <v>261</v>
       </c>
@@ -2250,7 +1944,7 @@
         <v>34.75</v>
       </c>
       <c r="F60">
-        <v>2.99999999999</v>
+        <v>0</v>
       </c>
       <c r="G60">
         <v>0</v>
@@ -2258,14 +1952,8 @@
       <c r="H60">
         <v>0</v>
       </c>
-      <c r="I60">
-        <v>0</v>
-      </c>
-      <c r="J60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10">
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1">
         <v>260</v>
       </c>
@@ -2282,7 +1970,7 @@
         <v>34.75</v>
       </c>
       <c r="F61">
-        <v>2.99999999999</v>
+        <v>0</v>
       </c>
       <c r="G61">
         <v>0</v>
@@ -2290,14 +1978,8 @@
       <c r="H61">
         <v>0</v>
       </c>
-      <c r="I61">
-        <v>0</v>
-      </c>
-      <c r="J61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10">
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1">
         <v>259</v>
       </c>
@@ -2314,22 +1996,16 @@
         <v>35.125</v>
       </c>
       <c r="F62">
-        <v>2.96249999999</v>
+        <v>-0.375</v>
       </c>
       <c r="G62">
-        <v>0.1185854122563233</v>
+        <v>-0.1250000000004167</v>
       </c>
       <c r="H62">
-        <v>-0.375</v>
-      </c>
-      <c r="I62">
-        <v>-0.1250000000004167</v>
-      </c>
-      <c r="J62">
         <v>-0.1335313926249988</v>
       </c>
     </row>
-    <row r="63" spans="1:10">
+    <row r="63" spans="1:8">
       <c r="A63" s="1">
         <v>258</v>
       </c>
@@ -2346,22 +2022,16 @@
         <v>35.75</v>
       </c>
       <c r="F63">
-        <v>2.88749999999</v>
+        <v>-0.375</v>
       </c>
       <c r="G63">
-        <v>0.2531057091414625</v>
+        <v>-0.1428571428576871</v>
       </c>
       <c r="H63">
-        <v>-0.375</v>
-      </c>
-      <c r="I63">
-        <v>-0.1428571428576871</v>
-      </c>
-      <c r="J63">
         <v>-0.1541506798278932</v>
       </c>
     </row>
-    <row r="64" spans="1:10">
+    <row r="64" spans="1:8">
       <c r="A64" s="1">
         <v>257</v>
       </c>
@@ -2378,22 +2048,16 @@
         <v>35.75</v>
       </c>
       <c r="F64">
-        <v>2.83749999999</v>
+        <v>0.25</v>
       </c>
       <c r="G64">
-        <v>0.2766992952647385</v>
+        <v>0.1111111111116049</v>
       </c>
       <c r="H64">
-        <v>0.25</v>
-      </c>
-      <c r="I64">
-        <v>0.1111111111116049</v>
-      </c>
-      <c r="J64">
         <v>0.1053605156582708</v>
       </c>
     </row>
-    <row r="65" spans="1:10">
+    <row r="65" spans="1:8">
       <c r="A65" s="1">
         <v>256</v>
       </c>
@@ -2410,22 +2074,16 @@
         <v>35.75</v>
       </c>
       <c r="F65">
-        <v>2.81249999999</v>
+        <v>0.25</v>
       </c>
       <c r="G65">
-        <v>0.2716334335501161</v>
+        <v>0.1000000000004</v>
       </c>
       <c r="H65">
-        <v>0.25</v>
-      </c>
-      <c r="I65">
-        <v>0.1000000000004</v>
-      </c>
-      <c r="J65">
         <v>0.09531017980468849</v>
       </c>
     </row>
-    <row r="66" spans="1:10">
+    <row r="66" spans="1:8">
       <c r="A66" s="1">
         <v>255</v>
       </c>
@@ -2442,22 +2100,16 @@
         <v>35.875</v>
       </c>
       <c r="F66">
-        <v>2.77499999999</v>
+        <v>-0.125</v>
       </c>
       <c r="G66">
-        <v>0.2687419249432913</v>
+        <v>-0.04545454545471075</v>
       </c>
       <c r="H66">
-        <v>-0.125</v>
-      </c>
-      <c r="I66">
-        <v>-0.04545454545471075</v>
-      </c>
-      <c r="J66">
         <v>-0.046520015635066</v>
       </c>
     </row>
-    <row r="67" spans="1:10">
+    <row r="67" spans="1:8">
       <c r="A67" s="1">
         <v>254</v>
       </c>
@@ -2474,22 +2126,16 @@
         <v>35.875</v>
       </c>
       <c r="F67">
-        <v>2.73749999999</v>
+        <v>0</v>
       </c>
       <c r="G67">
-        <v>0.2598744354918849</v>
+        <v>0</v>
       </c>
       <c r="H67">
         <v>0</v>
       </c>
-      <c r="I67">
-        <v>0</v>
-      </c>
-      <c r="J67">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:10">
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1">
         <v>253</v>
       </c>
@@ -2506,22 +2152,16 @@
         <v>35.875</v>
       </c>
       <c r="F68">
-        <v>2.69999999999</v>
+        <v>0</v>
       </c>
       <c r="G68">
-        <v>0.2443813049769277</v>
+        <v>0</v>
       </c>
       <c r="H68">
         <v>0</v>
       </c>
-      <c r="I68">
-        <v>0</v>
-      </c>
-      <c r="J68">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10">
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1">
         <v>252</v>
       </c>
@@ -2538,22 +2178,16 @@
         <v>35.875</v>
       </c>
       <c r="F69">
-        <v>2.66249999999</v>
+        <v>0</v>
       </c>
       <c r="G69">
-        <v>0.2208726380116524</v>
+        <v>0</v>
       </c>
       <c r="H69">
         <v>0</v>
       </c>
-      <c r="I69">
-        <v>0</v>
-      </c>
-      <c r="J69">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:10">
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1">
         <v>251</v>
       </c>
@@ -2570,22 +2204,16 @@
         <v>35.875</v>
       </c>
       <c r="F70">
-        <v>2.64999999999</v>
+        <v>0.25</v>
       </c>
       <c r="G70">
-        <v>0.202415963358196</v>
+        <v>0.09523809523845805</v>
       </c>
       <c r="H70">
-        <v>0.25</v>
-      </c>
-      <c r="I70">
-        <v>0.09523809523845805</v>
-      </c>
-      <c r="J70">
         <v>0.09097177820605806</v>
       </c>
     </row>
-    <row r="71" spans="1:10">
+    <row r="71" spans="1:8">
       <c r="A71" s="1">
         <v>250</v>
       </c>
@@ -2602,22 +2230,16 @@
         <v>35.875</v>
       </c>
       <c r="F71">
-        <v>2.63749999999</v>
+        <v>0</v>
       </c>
       <c r="G71">
-        <v>0.1811422093273801</v>
+        <v>0</v>
       </c>
       <c r="H71">
         <v>0</v>
       </c>
-      <c r="I71">
-        <v>0</v>
-      </c>
-      <c r="J71">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:10">
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1">
         <v>249</v>
       </c>
@@ -2634,22 +2256,16 @@
         <v>35.75</v>
       </c>
       <c r="F72">
-        <v>2.67499999999</v>
+        <v>0.125</v>
       </c>
       <c r="G72">
-        <v>0.2140872096444284</v>
+        <v>0.04347826086971645</v>
       </c>
       <c r="H72">
-        <v>0.125</v>
-      </c>
-      <c r="I72">
-        <v>0.04347826086971645</v>
-      </c>
-      <c r="J72">
         <v>0.04255961441894082</v>
       </c>
     </row>
-    <row r="73" spans="1:10">
+    <row r="73" spans="1:8">
       <c r="A73" s="1">
         <v>248</v>
       </c>
@@ -2666,22 +2282,16 @@
         <v>35.75</v>
       </c>
       <c r="F73">
-        <v>2.74999999999</v>
+        <v>0</v>
       </c>
       <c r="G73">
-        <v>0.176776695296647</v>
+        <v>0</v>
       </c>
       <c r="H73">
         <v>0</v>
       </c>
-      <c r="I73">
-        <v>0</v>
-      </c>
-      <c r="J73">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:10">
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1">
         <v>247</v>
       </c>
@@ -2698,22 +2308,16 @@
         <v>35.75</v>
       </c>
       <c r="F74">
-        <v>2.79999999999</v>
+        <v>0</v>
       </c>
       <c r="G74">
-        <v>0.1687371394276478</v>
+        <v>0</v>
       </c>
       <c r="H74">
         <v>0</v>
       </c>
-      <c r="I74">
-        <v>0</v>
-      </c>
-      <c r="J74">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:10">
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1">
         <v>246</v>
       </c>
@@ -2730,22 +2334,16 @@
         <v>35.75</v>
       </c>
       <c r="F75">
-        <v>2.82499999999</v>
+        <v>0</v>
       </c>
       <c r="G75">
-        <v>0.1787300882460687</v>
+        <v>0</v>
       </c>
       <c r="H75">
         <v>0</v>
       </c>
-      <c r="I75">
-        <v>0</v>
-      </c>
-      <c r="J75">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:10">
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1">
         <v>245</v>
       </c>
@@ -2762,22 +2360,16 @@
         <v>35.75</v>
       </c>
       <c r="F76">
-        <v>2.86249999999</v>
+        <v>0</v>
       </c>
       <c r="G76">
-        <v>0.1712900399257955</v>
+        <v>0</v>
       </c>
       <c r="H76">
         <v>0</v>
       </c>
-      <c r="I76">
-        <v>0</v>
-      </c>
-      <c r="J76">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:10">
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1">
         <v>244</v>
       </c>
@@ -2794,22 +2386,16 @@
         <v>36.25</v>
       </c>
       <c r="F77">
-        <v>2.84999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="G77">
-        <v>0.1936491673103783</v>
+        <v>-0.1666666666672222</v>
       </c>
       <c r="H77">
-        <v>-0.5</v>
-      </c>
-      <c r="I77">
-        <v>-0.1666666666672222</v>
-      </c>
-      <c r="J77">
         <v>-0.1823215567946213</v>
       </c>
     </row>
-    <row r="78" spans="1:10">
+    <row r="78" spans="1:8">
       <c r="A78" s="1">
         <v>243</v>
       </c>
@@ -2826,22 +2412,16 @@
         <v>36.25</v>
       </c>
       <c r="F78">
-        <v>2.83749999999</v>
+        <v>0</v>
       </c>
       <c r="G78">
-        <v>0.212867329574087</v>
+        <v>0</v>
       </c>
       <c r="H78">
         <v>0</v>
       </c>
-      <c r="I78">
-        <v>0</v>
-      </c>
-      <c r="J78">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:10">
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1">
         <v>242</v>
       </c>
@@ -2858,22 +2438,16 @@
         <v>36.25</v>
       </c>
       <c r="F79">
-        <v>2.82499999999</v>
+        <v>0</v>
       </c>
       <c r="G79">
-        <v>0.229734145868177</v>
+        <v>0</v>
       </c>
       <c r="H79">
         <v>0</v>
       </c>
-      <c r="I79">
-        <v>0</v>
-      </c>
-      <c r="J79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:10">
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1">
         <v>241</v>
       </c>
@@ -2890,22 +2464,16 @@
         <v>36.375</v>
       </c>
       <c r="F80">
-        <v>2.77499999999</v>
+        <v>-0.125</v>
       </c>
       <c r="G80">
-        <v>0.2687419249432913</v>
+        <v>-0.0500000000002</v>
       </c>
       <c r="H80">
-        <v>-0.125</v>
-      </c>
-      <c r="I80">
-        <v>-0.0500000000002</v>
-      </c>
-      <c r="J80">
         <v>-0.05129329438776106</v>
       </c>
     </row>
-    <row r="81" spans="1:10">
+    <row r="81" spans="1:8">
       <c r="A81" s="1">
         <v>240</v>
       </c>
@@ -2922,22 +2490,16 @@
         <v>36.375</v>
       </c>
       <c r="F81">
-        <v>2.72499999999</v>
+        <v>0</v>
       </c>
       <c r="G81">
-        <v>0.2934469476943232</v>
+        <v>0</v>
       </c>
       <c r="H81">
         <v>0</v>
       </c>
-      <c r="I81">
-        <v>0</v>
-      </c>
-      <c r="J81">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:10">
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1">
         <v>239</v>
       </c>
@@ -2954,22 +2516,16 @@
         <v>36.375</v>
       </c>
       <c r="F82">
-        <v>2.66249999999</v>
+        <v>0</v>
       </c>
       <c r="G82">
-        <v>0.2949223061531136</v>
+        <v>0</v>
       </c>
       <c r="H82">
         <v>0</v>
       </c>
-      <c r="I82">
-        <v>0</v>
-      </c>
-      <c r="J82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:10">
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1">
         <v>238</v>
       </c>
@@ -2986,22 +2542,16 @@
         <v>36.375</v>
       </c>
       <c r="F83">
-        <v>2.59999999999</v>
+        <v>0</v>
       </c>
       <c r="G83">
-        <v>0.2813657169355771</v>
+        <v>0</v>
       </c>
       <c r="H83">
         <v>0</v>
       </c>
-      <c r="I83">
-        <v>0</v>
-      </c>
-      <c r="J83">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:10">
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1">
         <v>237</v>
       </c>
@@ -3018,22 +2568,16 @@
         <v>36.375</v>
       </c>
       <c r="F84">
-        <v>2.53749999999</v>
+        <v>0</v>
       </c>
       <c r="G84">
-        <v>0.2503469814300068</v>
+        <v>0</v>
       </c>
       <c r="H84">
         <v>0</v>
       </c>
-      <c r="I84">
-        <v>0</v>
-      </c>
-      <c r="J84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:10">
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1">
         <v>236</v>
       </c>
@@ -3050,22 +2594,16 @@
         <v>36.375</v>
       </c>
       <c r="F85">
-        <v>2.47499999999</v>
+        <v>0</v>
       </c>
       <c r="G85">
-        <v>0.1936491673103851</v>
+        <v>0</v>
       </c>
       <c r="H85">
         <v>0</v>
       </c>
-      <c r="I85">
-        <v>0</v>
-      </c>
-      <c r="J85">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:10">
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1">
         <v>235</v>
       </c>
@@ -3082,22 +2620,16 @@
         <v>36.375</v>
       </c>
       <c r="F86">
-        <v>2.41249999999</v>
+        <v>0</v>
       </c>
       <c r="G86">
-        <v>0.06038073644250531</v>
+        <v>0</v>
       </c>
       <c r="H86">
         <v>0</v>
       </c>
-      <c r="I86">
-        <v>0</v>
-      </c>
-      <c r="J86">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:10">
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1">
         <v>234</v>
       </c>
@@ -3114,22 +2646,16 @@
         <v>36.625</v>
       </c>
       <c r="F87">
-        <v>2.37499999999</v>
+        <v>-0.25</v>
       </c>
       <c r="G87">
-        <v>0.1020620726159962</v>
+        <v>-0.1052631578951801</v>
       </c>
       <c r="H87">
-        <v>-0.25</v>
-      </c>
-      <c r="I87">
-        <v>-0.1052631578951801</v>
-      </c>
-      <c r="J87">
         <v>-0.1112256351107197</v>
       </c>
     </row>
-    <row r="88" spans="1:10">
+    <row r="88" spans="1:8">
       <c r="A88" s="1">
         <v>233</v>
       </c>
@@ -3146,22 +2672,16 @@
         <v>36.625</v>
       </c>
       <c r="F88">
-        <v>2.33749999999</v>
+        <v>0</v>
       </c>
       <c r="G88">
-        <v>0.1185854122563415</v>
+        <v>0</v>
       </c>
       <c r="H88">
         <v>0</v>
       </c>
-      <c r="I88">
-        <v>0</v>
-      </c>
-      <c r="J88">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:10">
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1">
         <v>232</v>
       </c>
@@ -3178,22 +2698,16 @@
         <v>36.625</v>
       </c>
       <c r="F89">
-        <v>2.27499999999</v>
+        <v>-0.25</v>
       </c>
       <c r="G89">
-        <v>0.174801474695045</v>
+        <v>-0.1176470588240831</v>
       </c>
       <c r="H89">
-        <v>-0.25</v>
-      </c>
-      <c r="I89">
-        <v>-0.1176470588240831</v>
-      </c>
-      <c r="J89">
         <v>-0.1251631429546334</v>
       </c>
     </row>
-    <row r="90" spans="1:10">
+    <row r="90" spans="1:8">
       <c r="A90" s="1">
         <v>231</v>
       </c>
@@ -3210,22 +2724,16 @@
         <v>36.625</v>
       </c>
       <c r="F90">
-        <v>2.22499999999</v>
+        <v>0</v>
       </c>
       <c r="G90">
-        <v>0.2108185106779092</v>
+        <v>0</v>
       </c>
       <c r="H90">
         <v>0</v>
       </c>
-      <c r="I90">
-        <v>0</v>
-      </c>
-      <c r="J90">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:10">
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1">
         <v>230</v>
       </c>
@@ -3242,22 +2750,16 @@
         <v>36.625</v>
       </c>
       <c r="F91">
-        <v>2.17499999999</v>
+        <v>0</v>
       </c>
       <c r="G91">
-        <v>0.2297341458681869</v>
+        <v>0</v>
       </c>
       <c r="H91">
         <v>0</v>
       </c>
-      <c r="I91">
-        <v>0</v>
-      </c>
-      <c r="J91">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:10">
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1">
         <v>229</v>
       </c>
@@ -3274,22 +2776,16 @@
         <v>36.625</v>
       </c>
       <c r="F92">
-        <v>2.12499999999</v>
+        <v>0</v>
       </c>
       <c r="G92">
-        <v>0.2357022603955328</v>
+        <v>0</v>
       </c>
       <c r="H92">
         <v>0</v>
       </c>
-      <c r="I92">
-        <v>0</v>
-      </c>
-      <c r="J92">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:10">
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1">
         <v>228</v>
       </c>
@@ -3306,22 +2802,16 @@
         <v>36.625</v>
       </c>
       <c r="F93">
-        <v>2.07499999999</v>
+        <v>0</v>
       </c>
       <c r="G93">
-        <v>0.2297341458681887</v>
+        <v>0</v>
       </c>
       <c r="H93">
         <v>0</v>
       </c>
-      <c r="I93">
-        <v>0</v>
-      </c>
-      <c r="J93">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:10">
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1">
         <v>227</v>
       </c>
@@ -3338,22 +2828,16 @@
         <v>36.5</v>
       </c>
       <c r="F94">
-        <v>2.03749999999</v>
+        <v>0.125</v>
       </c>
       <c r="G94">
-        <v>0.204548961810581</v>
+        <v>0.06666666666702223</v>
       </c>
       <c r="H94">
-        <v>0.125</v>
-      </c>
-      <c r="I94">
-        <v>0.06666666666702223</v>
-      </c>
-      <c r="J94">
         <v>0.06453852113790444</v>
       </c>
     </row>
-    <row r="95" spans="1:10">
+    <row r="95" spans="1:8">
       <c r="A95" s="1">
         <v>226</v>
       </c>
@@ -3370,22 +2854,16 @@
         <v>36.5</v>
       </c>
       <c r="F95">
-        <v>1.99999999999</v>
+        <v>0</v>
       </c>
       <c r="G95">
-        <v>0.1666666666666939</v>
+        <v>0</v>
       </c>
       <c r="H95">
         <v>0</v>
       </c>
-      <c r="I95">
-        <v>0</v>
-      </c>
-      <c r="J95">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:10">
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1">
         <v>225</v>
       </c>
@@ -3402,22 +2880,16 @@
         <v>36.5</v>
       </c>
       <c r="F96">
-        <v>1.96249999999</v>
+        <v>0</v>
       </c>
       <c r="G96">
-        <v>0.1029090752936162</v>
+        <v>0</v>
       </c>
       <c r="H96">
         <v>0</v>
       </c>
-      <c r="I96">
-        <v>0</v>
-      </c>
-      <c r="J96">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:10">
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1">
         <v>224</v>
       </c>
@@ -3434,22 +2906,16 @@
         <v>36.5</v>
       </c>
       <c r="F97">
-        <v>1.94999999999</v>
+        <v>0</v>
       </c>
       <c r="G97">
-        <v>0.08740073734756701</v>
+        <v>0</v>
       </c>
       <c r="H97">
         <v>0</v>
       </c>
-      <c r="I97">
-        <v>0</v>
-      </c>
-      <c r="J97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:10">
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1">
         <v>223</v>
       </c>
@@ -3466,22 +2932,16 @@
         <v>36.5</v>
       </c>
       <c r="F98">
-        <v>1.93749999999</v>
+        <v>0</v>
       </c>
       <c r="G98">
-        <v>0.06588078458691422</v>
+        <v>0</v>
       </c>
       <c r="H98">
         <v>0</v>
       </c>
-      <c r="I98">
-        <v>0</v>
-      </c>
-      <c r="J98">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:10">
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1">
         <v>222</v>
       </c>
@@ -3498,22 +2958,16 @@
         <v>36.5</v>
       </c>
       <c r="F99">
-        <v>1.94999999999</v>
+        <v>0</v>
       </c>
       <c r="G99">
-        <v>0.06454972243686392</v>
+        <v>0</v>
       </c>
       <c r="H99">
         <v>0</v>
       </c>
-      <c r="I99">
-        <v>0</v>
-      </c>
-      <c r="J99">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:10">
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1">
         <v>221</v>
       </c>
@@ -3530,22 +2984,16 @@
         <v>36.5</v>
       </c>
       <c r="F100">
-        <v>1.96249999999</v>
+        <v>0</v>
       </c>
       <c r="G100">
-        <v>0.06038073644253382</v>
+        <v>0</v>
       </c>
       <c r="H100">
         <v>0</v>
       </c>
-      <c r="I100">
-        <v>0</v>
-      </c>
-      <c r="J100">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:10">
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1">
         <v>220</v>
       </c>
@@ -3562,22 +3010,16 @@
         <v>36.5</v>
       </c>
       <c r="F101">
-        <v>1.97499999999</v>
+        <v>0</v>
       </c>
       <c r="G101">
-        <v>0.05270462766956112</v>
+        <v>0</v>
       </c>
       <c r="H101">
         <v>0</v>
       </c>
-      <c r="I101">
-        <v>0</v>
-      </c>
-      <c r="J101">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="1:10">
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1">
         <v>219</v>
       </c>
@@ -3594,22 +3036,16 @@
         <v>36.5</v>
       </c>
       <c r="F102">
-        <v>1.98749999999</v>
+        <v>0</v>
       </c>
       <c r="G102">
-        <v>0.0395284707522209</v>
+        <v>0</v>
       </c>
       <c r="H102">
         <v>0</v>
       </c>
-      <c r="I102">
-        <v>0</v>
-      </c>
-      <c r="J102">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="1:10">
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1">
         <v>218</v>
       </c>
@@ -3626,7 +3062,7 @@
         <v>36.5</v>
       </c>
       <c r="F103">
-        <v>1.99999999999</v>
+        <v>0</v>
       </c>
       <c r="G103">
         <v>0</v>
@@ -3634,14 +3070,8 @@
       <c r="H103">
         <v>0</v>
       </c>
-      <c r="I103">
-        <v>0</v>
-      </c>
-      <c r="J103">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="1:10">
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1">
         <v>217</v>
       </c>
@@ -3658,7 +3088,7 @@
         <v>36.5</v>
       </c>
       <c r="F104">
-        <v>1.99999999999</v>
+        <v>0</v>
       </c>
       <c r="G104">
         <v>0</v>
@@ -3666,14 +3096,8 @@
       <c r="H104">
         <v>0</v>
       </c>
-      <c r="I104">
-        <v>0</v>
-      </c>
-      <c r="J104">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="1:10">
+    </row>
+    <row r="105" spans="1:8">
       <c r="A105" s="1">
         <v>216</v>
       </c>
@@ -3690,7 +3114,7 @@
         <v>36.5</v>
       </c>
       <c r="F105">
-        <v>1.99999999999</v>
+        <v>0</v>
       </c>
       <c r="G105">
         <v>0</v>
@@ -3698,14 +3122,8 @@
       <c r="H105">
         <v>0</v>
       </c>
-      <c r="I105">
-        <v>0</v>
-      </c>
-      <c r="J105">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="1:10">
+    </row>
+    <row r="106" spans="1:8">
       <c r="A106" s="1">
         <v>215</v>
       </c>
@@ -3722,7 +3140,7 @@
         <v>36.5</v>
       </c>
       <c r="F106">
-        <v>1.99999999999</v>
+        <v>0</v>
       </c>
       <c r="G106">
         <v>0</v>
@@ -3730,14 +3148,8 @@
       <c r="H106">
         <v>0</v>
       </c>
-      <c r="I106">
-        <v>0</v>
-      </c>
-      <c r="J106">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="1:10">
+    </row>
+    <row r="107" spans="1:8">
       <c r="A107" s="1">
         <v>213</v>
       </c>
@@ -3754,7 +3166,7 @@
         <v>36.5</v>
       </c>
       <c r="F107">
-        <v>1.99999999999</v>
+        <v>0</v>
       </c>
       <c r="G107">
         <v>0</v>
@@ -3762,14 +3174,8 @@
       <c r="H107">
         <v>0</v>
       </c>
-      <c r="I107">
-        <v>0</v>
-      </c>
-      <c r="J107">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="1:10">
+    </row>
+    <row r="108" spans="1:8">
       <c r="A108" s="1">
         <v>212</v>
       </c>
@@ -3786,7 +3192,7 @@
         <v>36.5</v>
       </c>
       <c r="F108">
-        <v>1.99999999999</v>
+        <v>0</v>
       </c>
       <c r="G108">
         <v>0</v>
@@ -3794,14 +3200,8 @@
       <c r="H108">
         <v>0</v>
       </c>
-      <c r="I108">
-        <v>0</v>
-      </c>
-      <c r="J108">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" spans="1:10">
+    </row>
+    <row r="109" spans="1:8">
       <c r="A109" s="1">
         <v>211</v>
       </c>
@@ -3818,7 +3218,7 @@
         <v>36.5</v>
       </c>
       <c r="F109">
-        <v>1.99999999999</v>
+        <v>0</v>
       </c>
       <c r="G109">
         <v>0</v>
@@ -3826,14 +3226,8 @@
       <c r="H109">
         <v>0</v>
       </c>
-      <c r="I109">
-        <v>0</v>
-      </c>
-      <c r="J109">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" spans="1:10">
+    </row>
+    <row r="110" spans="1:8">
       <c r="A110" s="1">
         <v>210</v>
       </c>
@@ -3850,22 +3244,16 @@
         <v>36.5</v>
       </c>
       <c r="F110">
-        <v>1.98749999999</v>
+        <v>-0.125</v>
       </c>
       <c r="G110">
-        <v>0.0395284707522209</v>
+        <v>-0.0625000000003125</v>
       </c>
       <c r="H110">
-        <v>-0.125</v>
-      </c>
-      <c r="I110">
-        <v>-0.0625000000003125</v>
-      </c>
-      <c r="J110">
         <v>-0.06453852113790454</v>
       </c>
     </row>
-    <row r="111" spans="1:10">
+    <row r="111" spans="1:8">
       <c r="A111" s="1">
         <v>209</v>
       </c>
@@ -3882,22 +3270,16 @@
         <v>36.5</v>
       </c>
       <c r="F111">
-        <v>1.97499999999</v>
+        <v>0</v>
       </c>
       <c r="G111">
-        <v>0.05270462766956112</v>
+        <v>0</v>
       </c>
       <c r="H111">
         <v>0</v>
       </c>
-      <c r="I111">
-        <v>0</v>
-      </c>
-      <c r="J111">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" spans="1:10">
+    </row>
+    <row r="112" spans="1:8">
       <c r="A112" s="1">
         <v>208</v>
       </c>
@@ -3914,22 +3296,16 @@
         <v>36.625</v>
       </c>
       <c r="F112">
-        <v>1.94999999999</v>
+        <v>-0.125</v>
       </c>
       <c r="G112">
-        <v>0.08740073734756701</v>
+        <v>-0.06666666666702223</v>
       </c>
       <c r="H112">
-        <v>-0.125</v>
-      </c>
-      <c r="I112">
-        <v>-0.06666666666702223</v>
-      </c>
-      <c r="J112">
         <v>-0.06899287148733244</v>
       </c>
     </row>
-    <row r="113" spans="1:10">
+    <row r="113" spans="1:8">
       <c r="A113" s="1">
         <v>207</v>
       </c>
@@ -3946,22 +3322,16 @@
         <v>36.625</v>
       </c>
       <c r="F113">
-        <v>1.92499999999</v>
+        <v>0</v>
       </c>
       <c r="G113">
-        <v>0.1054092553389921</v>
+        <v>0</v>
       </c>
       <c r="H113">
         <v>0</v>
       </c>
-      <c r="I113">
-        <v>0</v>
-      </c>
-      <c r="J113">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="1:10">
+    </row>
+    <row r="114" spans="1:8">
       <c r="A114" s="1">
         <v>206</v>
       </c>
@@ -3978,22 +3348,16 @@
         <v>36.625</v>
       </c>
       <c r="F114">
-        <v>1.91249999999</v>
+        <v>0.125</v>
       </c>
       <c r="G114">
-        <v>0.1029090752936184</v>
+        <v>0.0714285714289796</v>
       </c>
       <c r="H114">
-        <v>0.125</v>
-      </c>
-      <c r="I114">
-        <v>0.0714285714289796</v>
-      </c>
-      <c r="J114">
         <v>0.06899287148733234</v>
       </c>
     </row>
-    <row r="115" spans="1:10">
+    <row r="115" spans="1:8">
       <c r="A115" s="1">
         <v>205</v>
       </c>
@@ -4010,22 +3374,16 @@
         <v>36.625</v>
       </c>
       <c r="F115">
-        <v>1.89999999999</v>
+        <v>0</v>
       </c>
       <c r="G115">
-        <v>0.09860132971837741</v>
+        <v>0</v>
       </c>
       <c r="H115">
         <v>0</v>
       </c>
-      <c r="I115">
-        <v>0</v>
-      </c>
-      <c r="J115">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116" spans="1:10">
+    </row>
+    <row r="116" spans="1:8">
       <c r="A116" s="1">
         <v>204</v>
       </c>
@@ -4042,22 +3400,16 @@
         <v>36.625</v>
       </c>
       <c r="F116">
-        <v>1.88749999999</v>
+        <v>0</v>
       </c>
       <c r="G116">
-        <v>0.09223309842163231</v>
+        <v>0</v>
       </c>
       <c r="H116">
         <v>0</v>
       </c>
-      <c r="I116">
-        <v>0</v>
-      </c>
-      <c r="J116">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117" spans="1:10">
+    </row>
+    <row r="117" spans="1:8">
       <c r="A117" s="1">
         <v>203</v>
       </c>
@@ -4074,22 +3426,16 @@
         <v>36.5</v>
       </c>
       <c r="F117">
-        <v>1.88749999999</v>
+        <v>0.125</v>
       </c>
       <c r="G117">
-        <v>0.09223309842163231</v>
+        <v>0.06666666666702223</v>
       </c>
       <c r="H117">
-        <v>0.125</v>
-      </c>
-      <c r="I117">
-        <v>0.06666666666702223</v>
-      </c>
-      <c r="J117">
         <v>0.06453852113790444</v>
       </c>
     </row>
-    <row r="118" spans="1:10">
+    <row r="118" spans="1:8">
       <c r="A118" s="1">
         <v>202</v>
       </c>
@@ -4106,22 +3452,16 @@
         <v>36.5</v>
       </c>
       <c r="F118">
-        <v>1.88749999999</v>
+        <v>0</v>
       </c>
       <c r="G118">
-        <v>0.09223309842163231</v>
+        <v>0</v>
       </c>
       <c r="H118">
         <v>0</v>
       </c>
-      <c r="I118">
-        <v>0</v>
-      </c>
-      <c r="J118">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="119" spans="1:10">
+    </row>
+    <row r="119" spans="1:8">
       <c r="A119" s="1">
         <v>201</v>
       </c>
@@ -4138,22 +3478,16 @@
         <v>36.5</v>
       </c>
       <c r="F119">
-        <v>1.92499999999</v>
+        <v>0.375</v>
       </c>
       <c r="G119">
-        <v>0.1787300882460873</v>
+        <v>0.1875000000009375</v>
       </c>
       <c r="H119">
-        <v>0.375</v>
-      </c>
-      <c r="I119">
-        <v>0.1875000000009375</v>
-      </c>
-      <c r="J119">
         <v>0.1718502569274487</v>
       </c>
     </row>
-    <row r="120" spans="1:10">
+    <row r="120" spans="1:8">
       <c r="A120" s="1">
         <v>200</v>
       </c>
@@ -4170,22 +3504,16 @@
         <v>36.5</v>
       </c>
       <c r="F120">
-        <v>1.93749999999</v>
+        <v>-0.375</v>
       </c>
       <c r="G120">
-        <v>0.1792151097300815</v>
+        <v>-0.1578947368427701</v>
       </c>
       <c r="H120">
-        <v>-0.375</v>
-      </c>
-      <c r="I120">
-        <v>-0.1578947368427701</v>
-      </c>
-      <c r="J120">
         <v>-0.1718502569274487</v>
       </c>
     </row>
-    <row r="121" spans="1:10">
+    <row r="121" spans="1:8">
       <c r="A121" s="1">
         <v>199</v>
       </c>
@@ -4202,22 +3530,16 @@
         <v>36.5</v>
       </c>
       <c r="F121">
-        <v>1.94999999999</v>
+        <v>0</v>
       </c>
       <c r="G121">
-        <v>0.1787300882460867</v>
+        <v>0</v>
       </c>
       <c r="H121">
         <v>0</v>
       </c>
-      <c r="I121">
-        <v>0</v>
-      </c>
-      <c r="J121">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122" spans="1:10">
+    </row>
+    <row r="122" spans="1:8">
       <c r="A122" s="1">
         <v>198</v>
       </c>
@@ -4234,22 +3556,16 @@
         <v>36.5</v>
       </c>
       <c r="F122">
-        <v>1.97499999999</v>
+        <v>0</v>
       </c>
       <c r="G122">
-        <v>0.1645701471511239</v>
+        <v>0</v>
       </c>
       <c r="H122">
         <v>0</v>
       </c>
-      <c r="I122">
-        <v>0</v>
-      </c>
-      <c r="J122">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="123" spans="1:10">
+    </row>
+    <row r="123" spans="1:8">
       <c r="A123" s="1">
         <v>197</v>
       </c>
@@ -4266,22 +3582,16 @@
         <v>36.375</v>
       </c>
       <c r="F123">
-        <v>2.01249999999</v>
+        <v>0.125</v>
       </c>
       <c r="G123">
-        <v>0.1496523749672629</v>
+        <v>0.0625000000003125</v>
       </c>
       <c r="H123">
-        <v>0.125</v>
-      </c>
-      <c r="I123">
-        <v>0.0625000000003125</v>
-      </c>
-      <c r="J123">
         <v>0.06062462181672888</v>
       </c>
     </row>
-    <row r="124" spans="1:10">
+    <row r="124" spans="1:8">
       <c r="A124" s="1">
         <v>196</v>
       </c>
@@ -4298,22 +3608,16 @@
         <v>36.375</v>
       </c>
       <c r="F124">
-        <v>2.03749999999</v>
+        <v>0</v>
       </c>
       <c r="G124">
-        <v>0.1449377260910807</v>
+        <v>0</v>
       </c>
       <c r="H124">
         <v>0</v>
       </c>
-      <c r="I124">
-        <v>0</v>
-      </c>
-      <c r="J124">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="125" spans="1:10">
+    </row>
+    <row r="125" spans="1:8">
       <c r="A125" s="1">
         <v>195</v>
       </c>
@@ -4330,22 +3634,16 @@
         <v>36.5</v>
       </c>
       <c r="F125">
-        <v>2.04999999999</v>
+        <v>-0.125</v>
       </c>
       <c r="G125">
-        <v>0.1343709624716744</v>
+        <v>-0.05882352941204153</v>
       </c>
       <c r="H125">
-        <v>-0.125</v>
-      </c>
-      <c r="I125">
-        <v>-0.05882352941204153</v>
-      </c>
-      <c r="J125">
         <v>-0.06062462181672893</v>
       </c>
     </row>
-    <row r="126" spans="1:10">
+    <row r="126" spans="1:8">
       <c r="A126" s="1">
         <v>194</v>
       </c>
@@ -4362,22 +3660,16 @@
         <v>36.5</v>
       </c>
       <c r="F126">
-        <v>2.06249999999</v>
+        <v>0</v>
       </c>
       <c r="G126">
-        <v>0.1214781644759785</v>
+        <v>0</v>
       </c>
       <c r="H126">
         <v>0</v>
       </c>
-      <c r="I126">
-        <v>0</v>
-      </c>
-      <c r="J126">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="127" spans="1:10">
+    </row>
+    <row r="127" spans="1:8">
       <c r="A127" s="1">
         <v>193</v>
       </c>
@@ -4394,22 +3686,16 @@
         <v>36.5</v>
       </c>
       <c r="F127">
-        <v>2.06249999999</v>
+        <v>0</v>
       </c>
       <c r="G127">
-        <v>0.1214781644759785</v>
+        <v>0</v>
       </c>
       <c r="H127">
         <v>0</v>
       </c>
-      <c r="I127">
-        <v>0</v>
-      </c>
-      <c r="J127">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="128" spans="1:10">
+    </row>
+    <row r="128" spans="1:8">
       <c r="A128" s="1">
         <v>192</v>
       </c>
@@ -4426,22 +3712,16 @@
         <v>36.875</v>
       </c>
       <c r="F128">
-        <v>2.02499999999</v>
+        <v>-0.375</v>
       </c>
       <c r="G128">
-        <v>0.1844661968431793</v>
+        <v>-0.1875000000009375</v>
       </c>
       <c r="H128">
-        <v>-0.375</v>
-      </c>
-      <c r="I128">
-        <v>-0.1875000000009375</v>
-      </c>
-      <c r="J128">
         <v>-0.2076393647793983</v>
       </c>
     </row>
-    <row r="129" spans="1:10">
+    <row r="129" spans="1:8">
       <c r="A129" s="1">
         <v>191</v>
       </c>
@@ -4458,22 +3738,16 @@
         <v>36.875</v>
       </c>
       <c r="F129">
-        <v>1.94999999999</v>
+        <v>0</v>
       </c>
       <c r="G129">
-        <v>0.1787300882460869</v>
+        <v>0</v>
       </c>
       <c r="H129">
         <v>0</v>
       </c>
-      <c r="I129">
-        <v>0</v>
-      </c>
-      <c r="J129">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="130" spans="1:10">
+    </row>
+    <row r="130" spans="1:8">
       <c r="A130" s="1">
         <v>190</v>
       </c>
@@ -4490,22 +3764,16 @@
         <v>36.875</v>
       </c>
       <c r="F130">
-        <v>1.91249999999</v>
+        <v>0</v>
       </c>
       <c r="G130">
-        <v>0.2045489618105838</v>
+        <v>0</v>
       </c>
       <c r="H130">
         <v>0</v>
       </c>
-      <c r="I130">
-        <v>0</v>
-      </c>
-      <c r="J130">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="131" spans="1:10">
+    </row>
+    <row r="131" spans="1:8">
       <c r="A131" s="1">
         <v>189</v>
       </c>
@@ -4522,22 +3790,16 @@
         <v>36.875</v>
       </c>
       <c r="F131">
-        <v>1.87499999999</v>
+        <v>0</v>
       </c>
       <c r="G131">
-        <v>0.2204792759220725</v>
+        <v>0</v>
       </c>
       <c r="H131">
         <v>0</v>
       </c>
-      <c r="I131">
-        <v>0</v>
-      </c>
-      <c r="J131">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="132" spans="1:10">
+    </row>
+    <row r="132" spans="1:8">
       <c r="A132" s="1">
         <v>188</v>
       </c>
@@ -4554,22 +3816,16 @@
         <v>36.875</v>
       </c>
       <c r="F132">
-        <v>1.83749999999</v>
+        <v>0</v>
       </c>
       <c r="G132">
-        <v>0.2285977787391099</v>
+        <v>0</v>
       </c>
       <c r="H132">
         <v>0</v>
       </c>
-      <c r="I132">
-        <v>0</v>
-      </c>
-      <c r="J132">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="133" spans="1:10">
+    </row>
+    <row r="133" spans="1:8">
       <c r="A133" s="1">
         <v>187</v>
       </c>
@@ -4586,22 +3842,16 @@
         <v>36.875</v>
       </c>
       <c r="F133">
-        <v>1.78749999999</v>
+        <v>0</v>
       </c>
       <c r="G133">
-        <v>0.2128673295741061</v>
+        <v>0</v>
       </c>
       <c r="H133">
         <v>0</v>
       </c>
-      <c r="I133">
-        <v>0</v>
-      </c>
-      <c r="J133">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="134" spans="1:10">
+    </row>
+    <row r="134" spans="1:8">
       <c r="A134" s="1">
         <v>186</v>
       </c>
@@ -4618,22 +3868,16 @@
         <v>36.875</v>
       </c>
       <c r="F134">
-        <v>1.73749999999</v>
+        <v>0</v>
       </c>
       <c r="G134">
-        <v>0.1811422093274</v>
+        <v>0</v>
       </c>
       <c r="H134">
         <v>0</v>
       </c>
-      <c r="I134">
-        <v>0</v>
-      </c>
-      <c r="J134">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="135" spans="1:10">
+    </row>
+    <row r="135" spans="1:8">
       <c r="A135" s="1">
         <v>185</v>
       </c>
@@ -4650,22 +3894,16 @@
         <v>36.875</v>
       </c>
       <c r="F135">
-        <v>1.69999999999</v>
+        <v>0</v>
       </c>
       <c r="G135">
-        <v>0.1581138830084569</v>
+        <v>0</v>
       </c>
       <c r="H135">
         <v>0</v>
       </c>
-      <c r="I135">
-        <v>0</v>
-      </c>
-      <c r="J135">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="136" spans="1:10">
+    </row>
+    <row r="136" spans="1:8">
       <c r="A136" s="1">
         <v>184</v>
       </c>
@@ -4682,22 +3920,16 @@
         <v>32.375</v>
       </c>
       <c r="F136">
-        <v>2.03749999999</v>
+        <v>3.75</v>
       </c>
       <c r="G136">
-        <v>1.178584956632321</v>
+        <v>1</v>
       </c>
       <c r="H136">
-        <v>3.75</v>
-      </c>
-      <c r="I136">
-        <v>1</v>
-      </c>
-      <c r="J136">
         <v>0.6931471805599453</v>
       </c>
     </row>
-    <row r="137" spans="1:10">
+    <row r="137" spans="1:8">
       <c r="A137" s="1">
         <v>183</v>
       </c>
@@ -4714,22 +3946,16 @@
         <v>36.875</v>
       </c>
       <c r="F137">
-        <v>1.99999999999</v>
+        <v>-3.75</v>
       </c>
       <c r="G137">
-        <v>1.185854122563146</v>
+        <v>-0.6976744186059491</v>
       </c>
       <c r="H137">
-        <v>-3.75</v>
-      </c>
-      <c r="I137">
-        <v>-0.6976744186059491</v>
-      </c>
-      <c r="J137">
         <v>-1.196250758236319</v>
       </c>
     </row>
-    <row r="138" spans="1:10">
+    <row r="138" spans="1:8">
       <c r="A138" s="1">
         <v>182</v>
       </c>
@@ -4746,22 +3972,16 @@
         <v>36.875</v>
       </c>
       <c r="F138">
-        <v>1.99999999999</v>
+        <v>0</v>
       </c>
       <c r="G138">
-        <v>1.185854122563146</v>
+        <v>0</v>
       </c>
       <c r="H138">
         <v>0</v>
       </c>
-      <c r="I138">
-        <v>0</v>
-      </c>
-      <c r="J138">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="139" spans="1:10">
+    </row>
+    <row r="139" spans="1:8">
       <c r="A139" s="1">
         <v>181</v>
       </c>
@@ -4778,22 +3998,16 @@
         <v>36.875</v>
       </c>
       <c r="F139">
-        <v>1.99999999999</v>
+        <v>0</v>
       </c>
       <c r="G139">
-        <v>1.185854122563146</v>
+        <v>0</v>
       </c>
       <c r="H139">
         <v>0</v>
       </c>
-      <c r="I139">
-        <v>0</v>
-      </c>
-      <c r="J139">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="140" spans="1:10">
+    </row>
+    <row r="140" spans="1:8">
       <c r="A140" s="1">
         <v>180</v>
       </c>
@@ -4810,22 +4024,16 @@
         <v>36.875</v>
       </c>
       <c r="F140">
-        <v>1.98749999999</v>
+        <v>-0.125</v>
       </c>
       <c r="G140">
-        <v>1.190894271825453</v>
+        <v>-0.0769230769235503</v>
       </c>
       <c r="H140">
-        <v>-0.125</v>
-      </c>
-      <c r="I140">
-        <v>-0.0769230769235503</v>
-      </c>
-      <c r="J140">
         <v>-0.08004270767404922</v>
       </c>
     </row>
-    <row r="141" spans="1:10">
+    <row r="141" spans="1:8">
       <c r="A141" s="1">
         <v>179</v>
       </c>
@@ -4842,22 +4050,16 @@
         <v>36.875</v>
       </c>
       <c r="F141">
-        <v>1.97499999999</v>
+        <v>0</v>
       </c>
       <c r="G141">
-        <v>1.195768000538198</v>
+        <v>0</v>
       </c>
       <c r="H141">
         <v>0</v>
       </c>
-      <c r="I141">
-        <v>0</v>
-      </c>
-      <c r="J141">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="142" spans="1:10">
+    </row>
+    <row r="142" spans="1:8">
       <c r="A142" s="1">
         <v>178</v>
       </c>
@@ -4874,22 +4076,16 @@
         <v>36.5</v>
       </c>
       <c r="F142">
-        <v>1.99999999999</v>
+        <v>0.375</v>
       </c>
       <c r="G142">
-        <v>1.190238071423812</v>
+        <v>0.2500000000016667</v>
       </c>
       <c r="H142">
-        <v>0.375</v>
-      </c>
-      <c r="I142">
-        <v>0.2500000000016667</v>
-      </c>
-      <c r="J142">
         <v>0.2231435513155431</v>
       </c>
     </row>
-    <row r="143" spans="1:10">
+    <row r="143" spans="1:8">
       <c r="A143" s="1">
         <v>177</v>
       </c>
@@ -4906,22 +4102,16 @@
         <v>36.5</v>
       </c>
       <c r="F143">
-        <v>2.01249999999</v>
+        <v>-0.125</v>
       </c>
       <c r="G143">
-        <v>1.186512747508432</v>
+        <v>-0.06666666666702223</v>
       </c>
       <c r="H143">
-        <v>-0.125</v>
-      </c>
-      <c r="I143">
-        <v>-0.06666666666702223</v>
-      </c>
-      <c r="J143">
         <v>-0.06899287148733244</v>
       </c>
     </row>
-    <row r="144" spans="1:10">
+    <row r="144" spans="1:8">
       <c r="A144" s="1">
         <v>176</v>
       </c>
@@ -4938,22 +4128,16 @@
         <v>36.5</v>
       </c>
       <c r="F144">
-        <v>2.02499999999</v>
+        <v>0</v>
       </c>
       <c r="G144">
-        <v>1.182628898307123</v>
+        <v>0</v>
       </c>
       <c r="H144">
         <v>0</v>
       </c>
-      <c r="I144">
-        <v>0</v>
-      </c>
-      <c r="J144">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="145" spans="1:10">
+    </row>
+    <row r="145" spans="1:8">
       <c r="A145" s="1">
         <v>175</v>
       </c>
@@ -4970,22 +4154,16 @@
         <v>36.5</v>
       </c>
       <c r="F145">
-        <v>2.03749999999</v>
+        <v>0</v>
       </c>
       <c r="G145">
-        <v>1.178584956632321</v>
+        <v>0</v>
       </c>
       <c r="H145">
         <v>0</v>
       </c>
-      <c r="I145">
-        <v>0</v>
-      </c>
-      <c r="J145">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="146" spans="1:10">
+    </row>
+    <row r="146" spans="1:8">
       <c r="A146" s="1">
         <v>174</v>
       </c>
@@ -5002,22 +4180,16 @@
         <v>36.5</v>
       </c>
       <c r="F146">
-        <v>1.69999999999</v>
+        <v>0.25</v>
       </c>
       <c r="G146">
-        <v>0.1581138830084584</v>
+        <v>0.1428571428579592</v>
       </c>
       <c r="H146">
-        <v>0.25</v>
-      </c>
-      <c r="I146">
-        <v>0.1428571428579592</v>
-      </c>
-      <c r="J146">
         <v>0.133531392625237</v>
       </c>
     </row>
-    <row r="147" spans="1:10">
+    <row r="147" spans="1:8">
       <c r="A147" s="1">
         <v>173</v>
       </c>
@@ -5034,22 +4206,16 @@
         <v>36.375</v>
       </c>
       <c r="F147">
-        <v>1.74999999999</v>
+        <v>0.125</v>
       </c>
       <c r="G147">
-        <v>0.2041241452319606</v>
+        <v>0.0625000000003125</v>
       </c>
       <c r="H147">
-        <v>0.125</v>
-      </c>
-      <c r="I147">
-        <v>0.0625000000003125</v>
-      </c>
-      <c r="J147">
         <v>0.06062462181672888</v>
       </c>
     </row>
-    <row r="148" spans="1:10">
+    <row r="148" spans="1:8">
       <c r="A148" s="1">
         <v>172</v>
       </c>
@@ -5066,22 +4232,16 @@
         <v>36.375</v>
       </c>
       <c r="F148">
-        <v>1.79999999999</v>
+        <v>0</v>
       </c>
       <c r="G148">
-        <v>0.229734145868195</v>
+        <v>0</v>
       </c>
       <c r="H148">
         <v>0</v>
       </c>
-      <c r="I148">
-        <v>0</v>
-      </c>
-      <c r="J148">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="149" spans="1:10">
+    </row>
+    <row r="149" spans="1:8">
       <c r="A149" s="1">
         <v>171</v>
       </c>
@@ -5098,22 +4258,16 @@
         <v>36.375</v>
       </c>
       <c r="F149">
-        <v>1.83749999999</v>
+        <v>-0.125</v>
       </c>
       <c r="G149">
-        <v>0.2285977787391105</v>
+        <v>-0.05882352941204153</v>
       </c>
       <c r="H149">
-        <v>-0.125</v>
-      </c>
-      <c r="I149">
-        <v>-0.05882352941204153</v>
-      </c>
-      <c r="J149">
         <v>-0.06062462181672893</v>
       </c>
     </row>
-    <row r="150" spans="1:10">
+    <row r="150" spans="1:8">
       <c r="A150" s="1">
         <v>170</v>
       </c>
@@ -5130,22 +4284,16 @@
         <v>36.375</v>
       </c>
       <c r="F150">
-        <v>1.89999999999</v>
+        <v>0.125</v>
       </c>
       <c r="G150">
-        <v>0.210818510677916</v>
+        <v>0.0625000000003125</v>
       </c>
       <c r="H150">
-        <v>0.125</v>
-      </c>
-      <c r="I150">
-        <v>0.0625000000003125</v>
-      </c>
-      <c r="J150">
         <v>0.06062462181672888</v>
       </c>
     </row>
-    <row r="151" spans="1:10">
+    <row r="151" spans="1:8">
       <c r="A151" s="1">
         <v>169</v>
       </c>
@@ -5162,22 +4310,16 @@
         <v>36.375</v>
       </c>
       <c r="F151">
-        <v>1.96249999999</v>
+        <v>0</v>
       </c>
       <c r="G151">
-        <v>0.1671866887311856</v>
+        <v>0</v>
       </c>
       <c r="H151">
         <v>0</v>
       </c>
-      <c r="I151">
-        <v>0</v>
-      </c>
-      <c r="J151">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="152" spans="1:10">
+    </row>
+    <row r="152" spans="1:8">
       <c r="A152" s="1">
         <v>168</v>
       </c>
@@ -5194,22 +4336,16 @@
         <v>36.375</v>
       </c>
       <c r="F152">
-        <v>1.98749999999</v>
+        <v>0</v>
       </c>
       <c r="G152">
-        <v>0.1712900399258139</v>
+        <v>0</v>
       </c>
       <c r="H152">
         <v>0</v>
       </c>
-      <c r="I152">
-        <v>0</v>
-      </c>
-      <c r="J152">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="153" spans="1:10">
+    </row>
+    <row r="153" spans="1:8">
       <c r="A153" s="1">
         <v>167</v>
       </c>
@@ -5226,22 +4362,16 @@
         <v>36.375</v>
       </c>
       <c r="F153">
-        <v>2.02499999999</v>
+        <v>0</v>
       </c>
       <c r="G153">
-        <v>0.153659074288243</v>
+        <v>0</v>
       </c>
       <c r="H153">
         <v>0</v>
       </c>
-      <c r="I153">
-        <v>0</v>
-      </c>
-      <c r="J153">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="154" spans="1:10">
+    </row>
+    <row r="154" spans="1:8">
       <c r="A154" s="1">
         <v>166</v>
       </c>
@@ -5258,22 +4388,16 @@
         <v>36.375</v>
       </c>
       <c r="F154">
-        <v>2.06249999999</v>
+        <v>0</v>
       </c>
       <c r="G154">
-        <v>0.1214781644759775</v>
+        <v>0</v>
       </c>
       <c r="H154">
         <v>0</v>
       </c>
-      <c r="I154">
-        <v>0</v>
-      </c>
-      <c r="J154">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="155" spans="1:10">
+    </row>
+    <row r="155" spans="1:8">
       <c r="A155" s="1">
         <v>165</v>
       </c>
@@ -5290,22 +4414,16 @@
         <v>36.375</v>
       </c>
       <c r="F155">
-        <v>2.09999999999</v>
+        <v>0</v>
       </c>
       <c r="G155">
-        <v>0.05270462766954631</v>
+        <v>0</v>
       </c>
       <c r="H155">
         <v>0</v>
       </c>
-      <c r="I155">
-        <v>0</v>
-      </c>
-      <c r="J155">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="156" spans="1:10">
+    </row>
+    <row r="156" spans="1:8">
       <c r="A156" s="1">
         <v>164</v>
       </c>
@@ -5322,22 +4440,16 @@
         <v>36.375</v>
       </c>
       <c r="F156">
-        <v>2.11249999999</v>
+        <v>0</v>
       </c>
       <c r="G156">
-        <v>0.03952847075220042</v>
+        <v>0</v>
       </c>
       <c r="H156">
         <v>0</v>
       </c>
-      <c r="I156">
-        <v>0</v>
-      </c>
-      <c r="J156">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="157" spans="1:10">
+    </row>
+    <row r="157" spans="1:8">
       <c r="A157" s="1">
         <v>163</v>
       </c>
@@ -5354,22 +4466,16 @@
         <v>36.375</v>
       </c>
       <c r="F157">
-        <v>2.11249999999</v>
+        <v>0</v>
       </c>
       <c r="G157">
-        <v>0.03952847075220042</v>
+        <v>0</v>
       </c>
       <c r="H157">
         <v>0</v>
       </c>
-      <c r="I157">
-        <v>0</v>
-      </c>
-      <c r="J157">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="158" spans="1:10">
+    </row>
+    <row r="158" spans="1:8">
       <c r="A158" s="1">
         <v>162</v>
       </c>
@@ -5386,22 +4492,16 @@
         <v>36.375</v>
       </c>
       <c r="F158">
-        <v>2.11249999999</v>
+        <v>0</v>
       </c>
       <c r="G158">
-        <v>0.03952847075220042</v>
+        <v>0</v>
       </c>
       <c r="H158">
         <v>0</v>
       </c>
-      <c r="I158">
-        <v>0</v>
-      </c>
-      <c r="J158">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="159" spans="1:10">
+    </row>
+    <row r="159" spans="1:8">
       <c r="A159" s="1">
         <v>161</v>
       </c>
@@ -5418,7 +4518,7 @@
         <v>36.375</v>
       </c>
       <c r="F159">
-        <v>2.12499999999</v>
+        <v>0</v>
       </c>
       <c r="G159">
         <v>0</v>
@@ -5426,14 +4526,8 @@
       <c r="H159">
         <v>0</v>
       </c>
-      <c r="I159">
-        <v>0</v>
-      </c>
-      <c r="J159">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="160" spans="1:10">
+    </row>
+    <row r="160" spans="1:8">
       <c r="A160" s="1">
         <v>160</v>
       </c>
@@ -5450,7 +4544,7 @@
         <v>36.375</v>
       </c>
       <c r="F160">
-        <v>2.12499999999</v>
+        <v>0</v>
       </c>
       <c r="G160">
         <v>0</v>
@@ -5458,14 +4552,8 @@
       <c r="H160">
         <v>0</v>
       </c>
-      <c r="I160">
-        <v>0</v>
-      </c>
-      <c r="J160">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="161" spans="1:10">
+    </row>
+    <row r="161" spans="1:8">
       <c r="A161" s="1">
         <v>159</v>
       </c>
@@ -5482,22 +4570,16 @@
         <v>36.375</v>
       </c>
       <c r="F161">
-        <v>2.14999999999</v>
+        <v>0.25</v>
       </c>
       <c r="G161">
-        <v>0.07905694150425399</v>
+        <v>0.1176470588240831</v>
       </c>
       <c r="H161">
-        <v>0.25</v>
-      </c>
-      <c r="I161">
-        <v>0.1176470588240831</v>
-      </c>
-      <c r="J161">
         <v>0.1112256351107197</v>
       </c>
     </row>
-    <row r="162" spans="1:10">
+    <row r="162" spans="1:8">
       <c r="A162" s="1">
         <v>158</v>
       </c>
@@ -5514,22 +4596,16 @@
         <v>36.375</v>
       </c>
       <c r="F162">
-        <v>2.17499999999</v>
+        <v>0</v>
       </c>
       <c r="G162">
-        <v>0.1054092553389776</v>
+        <v>0</v>
       </c>
       <c r="H162">
         <v>0</v>
       </c>
-      <c r="I162">
-        <v>0</v>
-      </c>
-      <c r="J162">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="163" spans="1:10">
+    </row>
+    <row r="163" spans="1:8">
       <c r="A163" s="1">
         <v>157</v>
       </c>
@@ -5546,22 +4622,16 @@
         <v>36.375</v>
       </c>
       <c r="F163">
-        <v>2.18749999999</v>
+        <v>-0.125</v>
       </c>
       <c r="G163">
-        <v>0.1062295731998801</v>
+        <v>-0.05263157894759003</v>
       </c>
       <c r="H163">
-        <v>-0.125</v>
-      </c>
-      <c r="I163">
-        <v>-0.05263157894759003</v>
-      </c>
-      <c r="J163">
         <v>-0.05406722127050974</v>
       </c>
     </row>
-    <row r="164" spans="1:10">
+    <row r="164" spans="1:8">
       <c r="A164" s="1">
         <v>156</v>
       </c>
@@ -5578,22 +4648,16 @@
         <v>36.375</v>
       </c>
       <c r="F164">
-        <v>2.19999999999</v>
+        <v>0</v>
       </c>
       <c r="G164">
-        <v>0.1054092553389757</v>
+        <v>0</v>
       </c>
       <c r="H164">
         <v>0</v>
       </c>
-      <c r="I164">
-        <v>0</v>
-      </c>
-      <c r="J164">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="165" spans="1:10">
+    </row>
+    <row r="165" spans="1:8">
       <c r="A165" s="1">
         <v>155</v>
       </c>
@@ -5610,22 +4674,16 @@
         <v>36.375</v>
       </c>
       <c r="F165">
-        <v>2.21249999999</v>
+        <v>0</v>
       </c>
       <c r="G165">
-        <v>0.1029090752936001</v>
+        <v>0</v>
       </c>
       <c r="H165">
         <v>0</v>
       </c>
-      <c r="I165">
-        <v>0</v>
-      </c>
-      <c r="J165">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="166" spans="1:10">
+    </row>
+    <row r="166" spans="1:8">
       <c r="A166" s="1">
         <v>154</v>
       </c>
@@ -5642,22 +4700,16 @@
         <v>36.375</v>
       </c>
       <c r="F166">
-        <v>2.22499999999</v>
+        <v>0</v>
       </c>
       <c r="G166">
-        <v>0.09860132971835678</v>
+        <v>0</v>
       </c>
       <c r="H166">
         <v>0</v>
       </c>
-      <c r="I166">
-        <v>0</v>
-      </c>
-      <c r="J166">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="167" spans="1:10">
+    </row>
+    <row r="167" spans="1:8">
       <c r="A167" s="1">
         <v>153</v>
       </c>
@@ -5674,22 +4726,16 @@
         <v>36.375</v>
       </c>
       <c r="F167">
-        <v>2.22499999999</v>
+        <v>-0.125</v>
       </c>
       <c r="G167">
-        <v>0.09860132971835678</v>
+        <v>-0.05555555555580247</v>
       </c>
       <c r="H167">
-        <v>-0.125</v>
-      </c>
-      <c r="I167">
-        <v>-0.05555555555580247</v>
-      </c>
-      <c r="J167">
         <v>-0.05715841384021007</v>
       </c>
     </row>
-    <row r="168" spans="1:10">
+    <row r="168" spans="1:8">
       <c r="A168" s="1">
         <v>152</v>
       </c>
@@ -5706,22 +4752,16 @@
         <v>36.375</v>
       </c>
       <c r="F168">
-        <v>2.22499999999</v>
+        <v>0</v>
       </c>
       <c r="G168">
-        <v>0.09860132971835678</v>
+        <v>0</v>
       </c>
       <c r="H168">
         <v>0</v>
       </c>
-      <c r="I168">
-        <v>0</v>
-      </c>
-      <c r="J168">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="169" spans="1:10">
+    </row>
+    <row r="169" spans="1:8">
       <c r="A169" s="1">
         <v>151</v>
       </c>
@@ -5738,22 +4778,16 @@
         <v>36.375</v>
       </c>
       <c r="F169">
-        <v>2.18749999999</v>
+        <v>-0.375</v>
       </c>
       <c r="G169">
-        <v>0.1792151097300727</v>
+        <v>-0.1764705882361246</v>
       </c>
       <c r="H169">
-        <v>-0.375</v>
-      </c>
-      <c r="I169">
-        <v>-0.1764705882361246</v>
-      </c>
-      <c r="J169">
         <v>-0.1941560144419659</v>
       </c>
     </row>
-    <row r="170" spans="1:10">
+    <row r="170" spans="1:8">
       <c r="A170" s="1">
         <v>150</v>
       </c>
@@ -5770,22 +4804,16 @@
         <v>36.375</v>
       </c>
       <c r="F170">
-        <v>2.14999999999</v>
+        <v>0</v>
       </c>
       <c r="G170">
-        <v>0.2266911751456062</v>
+        <v>0</v>
       </c>
       <c r="H170">
         <v>0</v>
       </c>
-      <c r="I170">
-        <v>0</v>
-      </c>
-      <c r="J170">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="171" spans="1:10">
+    </row>
+    <row r="171" spans="1:8">
       <c r="A171" s="1">
         <v>149</v>
       </c>
@@ -5802,22 +4830,16 @@
         <v>36.375</v>
       </c>
       <c r="F171">
-        <v>2.08749999999</v>
+        <v>0</v>
       </c>
       <c r="G171">
-        <v>0.2433133553442901</v>
+        <v>0</v>
       </c>
       <c r="H171">
         <v>0</v>
       </c>
-      <c r="I171">
-        <v>0</v>
-      </c>
-      <c r="J171">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="172" spans="1:10">
+    </row>
+    <row r="172" spans="1:8">
       <c r="A172" s="1">
         <v>148</v>
       </c>
@@ -5834,22 +4856,16 @@
         <v>36.375</v>
       </c>
       <c r="F172">
-        <v>2.02499999999</v>
+        <v>0</v>
       </c>
       <c r="G172">
-        <v>0.2415229457698422</v>
+        <v>0</v>
       </c>
       <c r="H172">
         <v>0</v>
       </c>
-      <c r="I172">
-        <v>0</v>
-      </c>
-      <c r="J172">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="173" spans="1:10">
+    </row>
+    <row r="173" spans="1:8">
       <c r="A173" s="1">
         <v>147</v>
       </c>
@@ -5866,22 +4882,16 @@
         <v>36.375</v>
       </c>
       <c r="F173">
-        <v>1.96249999999</v>
+        <v>-0.125</v>
       </c>
       <c r="G173">
-        <v>0.2571883227002016</v>
+        <v>-0.0714285714289796</v>
       </c>
       <c r="H173">
-        <v>-0.125</v>
-      </c>
-      <c r="I173">
-        <v>-0.0714285714289796</v>
-      </c>
-      <c r="J173">
         <v>-0.07410797215416147</v>
       </c>
     </row>
-    <row r="174" spans="1:10">
+    <row r="174" spans="1:8">
       <c r="A174" s="1">
         <v>146</v>
       </c>
@@ -5898,22 +4908,16 @@
         <v>36.375</v>
       </c>
       <c r="F174">
-        <v>1.89999999999</v>
+        <v>0</v>
       </c>
       <c r="G174">
-        <v>0.2554951619459523</v>
+        <v>0</v>
       </c>
       <c r="H174">
         <v>0</v>
       </c>
-      <c r="I174">
-        <v>0</v>
-      </c>
-      <c r="J174">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="175" spans="1:10">
+    </row>
+    <row r="175" spans="1:8">
       <c r="A175" s="1">
         <v>145</v>
       </c>
@@ -5930,22 +4934,16 @@
         <v>36.375</v>
       </c>
       <c r="F175">
-        <v>1.81249999999</v>
+        <v>-0.25</v>
       </c>
       <c r="G175">
-        <v>0.2716334335501323</v>
+        <v>-0.1538461538471006</v>
       </c>
       <c r="H175">
-        <v>-0.25</v>
-      </c>
-      <c r="I175">
-        <v>-0.1538461538471006</v>
-      </c>
-      <c r="J175">
         <v>-0.167054084664285</v>
       </c>
     </row>
-    <row r="176" spans="1:10">
+    <row r="176" spans="1:8">
       <c r="A176" s="1">
         <v>144</v>
       </c>
@@ -5962,22 +4960,16 @@
         <v>36.375</v>
       </c>
       <c r="F176">
-        <v>1.67499999999</v>
+        <v>-0.5</v>
       </c>
       <c r="G176">
-        <v>0.3593976442141498</v>
+        <v>-0.3636363636390083</v>
       </c>
       <c r="H176">
-        <v>-0.5</v>
-      </c>
-      <c r="I176">
-        <v>-0.3636363636390083</v>
-      </c>
-      <c r="J176">
         <v>-0.4519851237472132</v>
       </c>
     </row>
-    <row r="177" spans="1:10">
+    <row r="177" spans="1:8">
       <c r="A177" s="1">
         <v>143</v>
       </c>
@@ -5994,22 +4986,16 @@
         <v>36</v>
       </c>
       <c r="F177">
-        <v>1.56249999999</v>
+        <v>0.125</v>
       </c>
       <c r="G177">
-        <v>0.3784562942622072</v>
+        <v>0.1428571428587755</v>
       </c>
       <c r="H177">
-        <v>0.125</v>
-      </c>
-      <c r="I177">
-        <v>0.1428571428587755</v>
-      </c>
-      <c r="J177">
         <v>0.1335313926259512</v>
       </c>
     </row>
-    <row r="178" spans="1:10">
+    <row r="178" spans="1:8">
       <c r="A178" s="1">
         <v>142</v>
       </c>
@@ -6026,22 +5012,16 @@
         <v>34.75</v>
       </c>
       <c r="F178">
-        <v>1.49999999999</v>
+        <v>0.5</v>
       </c>
       <c r="G178">
-        <v>0.3227486121839772</v>
+        <v>0.500000000005</v>
       </c>
       <c r="H178">
-        <v>0.5</v>
-      </c>
-      <c r="I178">
-        <v>0.500000000005</v>
-      </c>
-      <c r="J178">
         <v>0.4054651081114977</v>
       </c>
     </row>
-    <row r="179" spans="1:10">
+    <row r="179" spans="1:8">
       <c r="A179" s="1">
         <v>141</v>
       </c>
@@ -6058,22 +5038,16 @@
         <v>33.75</v>
       </c>
       <c r="F179">
-        <v>1.54999999999</v>
+        <v>0.75</v>
       </c>
       <c r="G179">
-        <v>0.3961621441335105</v>
+        <v>0.5000000000033333</v>
       </c>
       <c r="H179">
-        <v>0.75</v>
-      </c>
-      <c r="I179">
-        <v>0.5000000000033333</v>
-      </c>
-      <c r="J179">
         <v>0.4054651081103866</v>
       </c>
     </row>
-    <row r="180" spans="1:10">
+    <row r="180" spans="1:8">
       <c r="A180" s="1">
         <v>140</v>
       </c>
@@ -6090,22 +5064,16 @@
         <v>33.75</v>
       </c>
       <c r="F180">
-        <v>1.59999999999</v>
+        <v>0</v>
       </c>
       <c r="G180">
-        <v>0.4518480570575487</v>
+        <v>0</v>
       </c>
       <c r="H180">
         <v>0</v>
       </c>
-      <c r="I180">
-        <v>0</v>
-      </c>
-      <c r="J180">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="181" spans="1:10">
+    </row>
+    <row r="181" spans="1:8">
       <c r="A181" s="1">
         <v>139</v>
       </c>
@@ -6122,22 +5090,16 @@
         <v>33.75</v>
       </c>
       <c r="F181">
-        <v>1.64999999999</v>
+        <v>0</v>
       </c>
       <c r="G181">
-        <v>0.495815826021465</v>
+        <v>0</v>
       </c>
       <c r="H181">
         <v>0</v>
       </c>
-      <c r="I181">
-        <v>0</v>
-      </c>
-      <c r="J181">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="182" spans="1:10">
+    </row>
+    <row r="182" spans="1:8">
       <c r="A182" s="1">
         <v>138</v>
       </c>
@@ -6154,22 +5116,16 @@
         <v>33.75</v>
       </c>
       <c r="F182">
-        <v>1.74999999999</v>
+        <v>0.5</v>
       </c>
       <c r="G182">
-        <v>0.6066758241067204</v>
+        <v>0.2222222222232099</v>
       </c>
       <c r="H182">
-        <v>0.5</v>
-      </c>
-      <c r="I182">
-        <v>0.2222222222232099</v>
-      </c>
-      <c r="J182">
         <v>0.2006706954629593</v>
       </c>
     </row>
-    <row r="183" spans="1:10">
+    <row r="183" spans="1:8">
       <c r="A183" s="1">
         <v>137</v>
       </c>
@@ -6186,22 +5142,16 @@
         <v>33.75</v>
       </c>
       <c r="F183">
-        <v>1.86249999999</v>
+        <v>0</v>
       </c>
       <c r="G183">
-        <v>0.6807114333956545</v>
+        <v>0</v>
       </c>
       <c r="H183">
         <v>0</v>
       </c>
-      <c r="I183">
-        <v>0</v>
-      </c>
-      <c r="J183">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="184" spans="1:10">
+    </row>
+    <row r="184" spans="1:8">
       <c r="A184" s="1">
         <v>136</v>
       </c>
@@ -6218,22 +5168,16 @@
         <v>33.75</v>
       </c>
       <c r="F184">
-        <v>1.96249999999</v>
+        <v>-0.125</v>
       </c>
       <c r="G184">
-        <v>0.7145560004490812</v>
+        <v>-0.04545454545471075</v>
       </c>
       <c r="H184">
-        <v>-0.125</v>
-      </c>
-      <c r="I184">
-        <v>-0.04545454545471075</v>
-      </c>
-      <c r="J184">
         <v>-0.046520015635066</v>
       </c>
     </row>
-    <row r="185" spans="1:10">
+    <row r="185" spans="1:8">
       <c r="A185" s="1">
         <v>135</v>
       </c>
@@ -6250,22 +5194,16 @@
         <v>33.75</v>
       </c>
       <c r="F185">
-        <v>2.08749999999</v>
+        <v>0</v>
       </c>
       <c r="G185">
-        <v>0.7096800922481488</v>
+        <v>0</v>
       </c>
       <c r="H185">
         <v>0</v>
       </c>
-      <c r="I185">
-        <v>0</v>
-      </c>
-      <c r="J185">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="186" spans="1:10">
+    </row>
+    <row r="186" spans="1:8">
       <c r="A186" s="1">
         <v>134</v>
       </c>
@@ -6282,22 +5220,16 @@
         <v>33.75</v>
       </c>
       <c r="F186">
-        <v>2.26249999999</v>
+        <v>0</v>
       </c>
       <c r="G186">
-        <v>0.5816941254263793</v>
+        <v>0</v>
       </c>
       <c r="H186">
         <v>0</v>
       </c>
-      <c r="I186">
-        <v>0</v>
-      </c>
-      <c r="J186">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="187" spans="1:10">
+    </row>
+    <row r="187" spans="1:8">
       <c r="A187" s="1">
         <v>133</v>
       </c>
@@ -6314,22 +5246,16 @@
         <v>33.75</v>
       </c>
       <c r="F187">
-        <v>2.42499999999</v>
+        <v>0</v>
       </c>
       <c r="G187">
-        <v>0.3827894692618649</v>
+        <v>0</v>
       </c>
       <c r="H187">
         <v>0</v>
       </c>
-      <c r="I187">
-        <v>0</v>
-      </c>
-      <c r="J187">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="188" spans="1:10">
+    </row>
+    <row r="188" spans="1:8">
       <c r="A188" s="1">
         <v>132</v>
       </c>
@@ -6346,22 +5272,16 @@
         <v>33.75</v>
       </c>
       <c r="F188">
-        <v>2.54999999999</v>
+        <v>0.125</v>
       </c>
       <c r="G188">
-        <v>0.2140872096444199</v>
+        <v>0.04761904761922903</v>
       </c>
       <c r="H188">
-        <v>0.125</v>
-      </c>
-      <c r="I188">
-        <v>0.04761904761922903</v>
-      </c>
-      <c r="J188">
         <v>0.04652001563506607</v>
       </c>
     </row>
-    <row r="189" spans="1:10">
+    <row r="189" spans="1:8">
       <c r="A189" s="1">
         <v>131</v>
       </c>
@@ -6378,22 +5298,16 @@
         <v>33.75</v>
       </c>
       <c r="F189">
-        <v>2.59999999999</v>
+        <v>0</v>
       </c>
       <c r="G189">
-        <v>0.1936491673103701</v>
+        <v>0</v>
       </c>
       <c r="H189">
         <v>0</v>
       </c>
-      <c r="I189">
-        <v>0</v>
-      </c>
-      <c r="J189">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="190" spans="1:10">
+    </row>
+    <row r="190" spans="1:8">
       <c r="A190" s="1">
         <v>130</v>
       </c>
@@ -6410,22 +5324,16 @@
         <v>33.75</v>
       </c>
       <c r="F190">
-        <v>2.64999999999</v>
+        <v>0</v>
       </c>
       <c r="G190">
-        <v>0.1536590742882114</v>
+        <v>0</v>
       </c>
       <c r="H190">
         <v>0</v>
       </c>
-      <c r="I190">
-        <v>0</v>
-      </c>
-      <c r="J190">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="191" spans="1:10">
+    </row>
+    <row r="191" spans="1:8">
       <c r="A191" s="1">
         <v>129</v>
       </c>
@@ -6442,22 +5350,16 @@
         <v>33.75</v>
       </c>
       <c r="F191">
-        <v>2.69999999999</v>
+        <v>0</v>
       </c>
       <c r="G191">
-        <v>0.06454972243677652</v>
+        <v>0</v>
       </c>
       <c r="H191">
         <v>0</v>
       </c>
-      <c r="I191">
-        <v>0</v>
-      </c>
-      <c r="J191">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="192" spans="1:10">
+    </row>
+    <row r="192" spans="1:8">
       <c r="A192" s="1">
         <v>128</v>
       </c>
@@ -6474,22 +5376,16 @@
         <v>33.75</v>
       </c>
       <c r="F192">
-        <v>2.69999999999</v>
+        <v>0</v>
       </c>
       <c r="G192">
-        <v>0.06454972243677652</v>
+        <v>0</v>
       </c>
       <c r="H192">
         <v>0</v>
       </c>
-      <c r="I192">
-        <v>0</v>
-      </c>
-      <c r="J192">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="193" spans="1:10">
+    </row>
+    <row r="193" spans="1:8">
       <c r="A193" s="1">
         <v>127</v>
       </c>
@@ -6506,22 +5402,16 @@
         <v>34.625</v>
       </c>
       <c r="F193">
-        <v>2.61249999999</v>
+        <v>-0.875</v>
       </c>
       <c r="G193">
-        <v>0.2664712825886571</v>
+        <v>-0.3181818181829752</v>
       </c>
       <c r="H193">
-        <v>-0.875</v>
-      </c>
-      <c r="I193">
-        <v>-0.3181818181829752</v>
-      </c>
-      <c r="J193">
         <v>-0.3829922522578028</v>
       </c>
     </row>
-    <row r="194" spans="1:10">
+    <row r="194" spans="1:8">
       <c r="A194" s="1">
         <v>126</v>
       </c>
@@ -6538,22 +5428,16 @@
         <v>34.75</v>
       </c>
       <c r="F194">
-        <v>2.52499999999</v>
+        <v>-0.125</v>
       </c>
       <c r="G194">
-        <v>0.3809709816887497</v>
+        <v>-0.06666666666702223</v>
       </c>
       <c r="H194">
-        <v>-0.125</v>
-      </c>
-      <c r="I194">
-        <v>-0.06666666666702223</v>
-      </c>
-      <c r="J194">
         <v>-0.06899287148733244</v>
       </c>
     </row>
-    <row r="195" spans="1:10">
+    <row r="195" spans="1:8">
       <c r="A195" s="1">
         <v>125</v>
       </c>
@@ -6570,22 +5454,16 @@
         <v>34.75</v>
       </c>
       <c r="F195">
-        <v>2.46249999999</v>
+        <v>0.25</v>
       </c>
       <c r="G195">
-        <v>0.4126893504804814</v>
+        <v>0.1428571428579592</v>
       </c>
       <c r="H195">
-        <v>0.25</v>
-      </c>
-      <c r="I195">
-        <v>0.1428571428579592</v>
-      </c>
-      <c r="J195">
         <v>0.133531392625237</v>
       </c>
     </row>
-    <row r="196" spans="1:10">
+    <row r="196" spans="1:8">
       <c r="A196" s="1">
         <v>124</v>
       </c>
@@ -6602,22 +5480,16 @@
         <v>34.75</v>
       </c>
       <c r="F196">
-        <v>2.39999999999</v>
+        <v>0</v>
       </c>
       <c r="G196">
-        <v>0.432210082663001</v>
+        <v>0</v>
       </c>
       <c r="H196">
         <v>0</v>
       </c>
-      <c r="I196">
-        <v>0</v>
-      </c>
-      <c r="J196">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="197" spans="1:10">
+    </row>
+    <row r="197" spans="1:8">
       <c r="A197" s="1">
         <v>123</v>
       </c>
@@ -6634,22 +5506,16 @@
         <v>34.75</v>
       </c>
       <c r="F197">
-        <v>2.31249999999</v>
+        <v>-0.25</v>
       </c>
       <c r="G197">
-        <v>0.4686342449667538</v>
+        <v>-0.125000000000625</v>
       </c>
       <c r="H197">
-        <v>-0.25</v>
-      </c>
-      <c r="I197">
-        <v>-0.125000000000625</v>
-      </c>
-      <c r="J197">
         <v>-0.133531392625237</v>
       </c>
     </row>
-    <row r="198" spans="1:10">
+    <row r="198" spans="1:8">
       <c r="A198" s="1">
         <v>122</v>
       </c>
@@ -6666,22 +5532,16 @@
         <v>34.625</v>
       </c>
       <c r="F198">
-        <v>2.22499999999</v>
+        <v>0.125</v>
       </c>
       <c r="G198">
-        <v>0.4594682917363462</v>
+        <v>0.0714285714289796</v>
       </c>
       <c r="H198">
-        <v>0.125</v>
-      </c>
-      <c r="I198">
-        <v>0.0714285714289796</v>
-      </c>
-      <c r="J198">
         <v>0.06899287148733234</v>
       </c>
     </row>
-    <row r="199" spans="1:10">
+    <row r="199" spans="1:8">
       <c r="A199" s="1">
         <v>121</v>
       </c>
@@ -6698,22 +5558,16 @@
         <v>34.5</v>
       </c>
       <c r="F199">
-        <v>2.14999999999</v>
+        <v>0.125</v>
       </c>
       <c r="G199">
-        <v>0.4241003549999895</v>
+        <v>0.06666666666702223</v>
       </c>
       <c r="H199">
-        <v>0.125</v>
-      </c>
-      <c r="I199">
-        <v>0.06666666666702223</v>
-      </c>
-      <c r="J199">
         <v>0.06453852113790444</v>
       </c>
     </row>
-    <row r="200" spans="1:10">
+    <row r="200" spans="1:8">
       <c r="A200" s="1">
         <v>120</v>
       </c>
@@ -6730,22 +5584,16 @@
         <v>34.5</v>
       </c>
       <c r="F200">
-        <v>2.07499999999</v>
+        <v>0</v>
       </c>
       <c r="G200">
-        <v>0.3689323936863205</v>
+        <v>0</v>
       </c>
       <c r="H200">
         <v>0</v>
       </c>
-      <c r="I200">
-        <v>0</v>
-      </c>
-      <c r="J200">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="201" spans="1:10">
+    </row>
+    <row r="201" spans="1:8">
       <c r="A201" s="1">
         <v>119</v>
       </c>
@@ -6762,22 +5610,16 @@
         <v>34.25</v>
       </c>
       <c r="F201">
-        <v>2.02499999999</v>
+        <v>0.25</v>
       </c>
       <c r="G201">
-        <v>0.2934469476943299</v>
+        <v>0.125000000000625</v>
       </c>
       <c r="H201">
-        <v>0.25</v>
-      </c>
-      <c r="I201">
-        <v>0.125000000000625</v>
-      </c>
-      <c r="J201">
         <v>0.1177830356569391</v>
       </c>
     </row>
-    <row r="202" spans="1:10">
+    <row r="202" spans="1:8">
       <c r="A202" s="1">
         <v>118</v>
       </c>
@@ -6794,22 +5636,16 @@
         <v>34.25</v>
       </c>
       <c r="F202">
-        <v>1.97499999999</v>
+        <v>0</v>
       </c>
       <c r="G202">
-        <v>0.1748014746950493</v>
+        <v>0</v>
       </c>
       <c r="H202">
         <v>0</v>
       </c>
-      <c r="I202">
-        <v>0</v>
-      </c>
-      <c r="J202">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="203" spans="1:10">
+    </row>
+    <row r="203" spans="1:8">
       <c r="A203" s="1">
         <v>117</v>
       </c>
@@ -6826,22 +5662,16 @@
         <v>34.25</v>
       </c>
       <c r="F203">
-        <v>2.01249999999</v>
+        <v>0</v>
       </c>
       <c r="G203">
-        <v>0.1904854908443951</v>
+        <v>0</v>
       </c>
       <c r="H203">
         <v>0</v>
       </c>
-      <c r="I203">
-        <v>0</v>
-      </c>
-      <c r="J203">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="204" spans="1:10">
+    </row>
+    <row r="204" spans="1:8">
       <c r="A204" s="1">
         <v>116</v>
       </c>
@@ -6858,22 +5688,16 @@
         <v>34.25</v>
       </c>
       <c r="F204">
-        <v>2.06249999999</v>
+        <v>0</v>
       </c>
       <c r="G204">
-        <v>0.179215109730075</v>
+        <v>0</v>
       </c>
       <c r="H204">
         <v>0</v>
       </c>
-      <c r="I204">
-        <v>0</v>
-      </c>
-      <c r="J204">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="205" spans="1:10">
+    </row>
+    <row r="205" spans="1:8">
       <c r="A205" s="1">
         <v>115</v>
       </c>
@@ -6890,22 +5714,16 @@
         <v>33.25</v>
       </c>
       <c r="F205">
-        <v>2.13749999999</v>
+        <v>0.5</v>
       </c>
       <c r="G205">
-        <v>0.2791977594625271</v>
+        <v>0.2222222222232099</v>
       </c>
       <c r="H205">
-        <v>0.5</v>
-      </c>
-      <c r="I205">
-        <v>0.2222222222232099</v>
-      </c>
-      <c r="J205">
         <v>0.2006706954629593</v>
       </c>
     </row>
-    <row r="206" spans="1:10">
+    <row r="206" spans="1:8">
       <c r="A206" s="1">
         <v>114</v>
       </c>
@@ -6922,22 +5740,16 @@
         <v>33.25</v>
       </c>
       <c r="F206">
-        <v>2.21249999999</v>
+        <v>0</v>
       </c>
       <c r="G206">
-        <v>0.3335936483541428</v>
+        <v>0</v>
       </c>
       <c r="H206">
         <v>0</v>
       </c>
-      <c r="I206">
-        <v>0</v>
-      </c>
-      <c r="J206">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="207" spans="1:10">
+    </row>
+    <row r="207" spans="1:8">
       <c r="A207" s="1">
         <v>113</v>
       </c>
@@ -6954,22 +5766,16 @@
         <v>33.25</v>
       </c>
       <c r="F207">
-        <v>2.31249999999</v>
+        <v>0</v>
       </c>
       <c r="G207">
-        <v>0.3294039229342123</v>
+        <v>0</v>
       </c>
       <c r="H207">
         <v>0</v>
       </c>
-      <c r="I207">
-        <v>0</v>
-      </c>
-      <c r="J207">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="208" spans="1:10">
+    </row>
+    <row r="208" spans="1:8">
       <c r="A208" s="1">
         <v>112</v>
       </c>
@@ -6986,22 +5792,16 @@
         <v>33.25</v>
       </c>
       <c r="F208">
-        <v>2.39999999999</v>
+        <v>0</v>
       </c>
       <c r="G208">
-        <v>0.3162277660168428</v>
+        <v>0</v>
       </c>
       <c r="H208">
         <v>0</v>
       </c>
-      <c r="I208">
-        <v>0</v>
-      </c>
-      <c r="J208">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="209" spans="1:10">
+    </row>
+    <row r="209" spans="1:8">
       <c r="A209" s="1">
         <v>111</v>
       </c>
@@ -7018,22 +5818,16 @@
         <v>33.25</v>
       </c>
       <c r="F209">
-        <v>2.47499999999</v>
+        <v>0</v>
       </c>
       <c r="G209">
-        <v>0.2993047499344698</v>
+        <v>0</v>
       </c>
       <c r="H209">
         <v>0</v>
       </c>
-      <c r="I209">
-        <v>0</v>
-      </c>
-      <c r="J209">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="210" spans="1:10">
+    </row>
+    <row r="210" spans="1:8">
       <c r="A210" s="1">
         <v>110</v>
       </c>
@@ -7050,22 +5844,16 @@
         <v>33.25</v>
       </c>
       <c r="F210">
-        <v>2.49999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="G210">
-        <v>0.2635231383473685</v>
+        <v>-0.181818181818843</v>
       </c>
       <c r="H210">
-        <v>-0.5</v>
-      </c>
-      <c r="I210">
-        <v>-0.181818181818843</v>
-      </c>
-      <c r="J210">
         <v>-0.2006706954629593</v>
       </c>
     </row>
-    <row r="211" spans="1:10">
+    <row r="211" spans="1:8">
       <c r="A211" s="1">
         <v>109</v>
       </c>
@@ -7082,22 +5870,16 @@
         <v>33.25</v>
       </c>
       <c r="F211">
-        <v>2.49999999999</v>
+        <v>0</v>
       </c>
       <c r="G211">
-        <v>0.2635231383473685</v>
+        <v>0</v>
       </c>
       <c r="H211">
         <v>0</v>
       </c>
-      <c r="I211">
-        <v>0</v>
-      </c>
-      <c r="J211">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="212" spans="1:10">
+    </row>
+    <row r="212" spans="1:8">
       <c r="A212" s="1">
         <v>108</v>
       </c>
@@ -7114,22 +5896,16 @@
         <v>33.25</v>
       </c>
       <c r="F212">
-        <v>2.49999999999</v>
+        <v>0</v>
       </c>
       <c r="G212">
-        <v>0.2635231383473685</v>
+        <v>0</v>
       </c>
       <c r="H212">
         <v>0</v>
       </c>
-      <c r="I212">
-        <v>0</v>
-      </c>
-      <c r="J212">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="213" spans="1:10">
+    </row>
+    <row r="213" spans="1:8">
       <c r="A213" s="1">
         <v>107</v>
       </c>
@@ -7146,22 +5922,16 @@
         <v>33.25</v>
       </c>
       <c r="F213">
-        <v>2.49999999999</v>
+        <v>0</v>
       </c>
       <c r="G213">
-        <v>0.2635231383473685</v>
+        <v>0</v>
       </c>
       <c r="H213">
         <v>0</v>
       </c>
-      <c r="I213">
-        <v>0</v>
-      </c>
-      <c r="J213">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="214" spans="1:10">
+    </row>
+    <row r="214" spans="1:8">
       <c r="A214" s="1">
         <v>106</v>
       </c>
@@ -7178,22 +5948,16 @@
         <v>33.25</v>
       </c>
       <c r="F214">
-        <v>2.49999999999</v>
+        <v>0</v>
       </c>
       <c r="G214">
-        <v>0.2635231383473685</v>
+        <v>0</v>
       </c>
       <c r="H214">
         <v>0</v>
       </c>
-      <c r="I214">
-        <v>0</v>
-      </c>
-      <c r="J214">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="215" spans="1:10">
+    </row>
+    <row r="215" spans="1:8">
       <c r="A215" s="1">
         <v>105</v>
       </c>
@@ -7210,22 +5974,16 @@
         <v>33.25</v>
       </c>
       <c r="F215">
-        <v>2.44999999999</v>
+        <v>0</v>
       </c>
       <c r="G215">
-        <v>0.2581988897471659</v>
+        <v>0</v>
       </c>
       <c r="H215">
         <v>0</v>
       </c>
-      <c r="I215">
-        <v>0</v>
-      </c>
-      <c r="J215">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="216" spans="1:10">
+    </row>
+    <row r="216" spans="1:8">
       <c r="A216" s="1">
         <v>104</v>
       </c>
@@ -7242,22 +6000,16 @@
         <v>33.25</v>
       </c>
       <c r="F216">
-        <v>2.42499999999</v>
+        <v>0.25</v>
       </c>
       <c r="G216">
-        <v>0.2371708245126342</v>
+        <v>0.1111111111116049</v>
       </c>
       <c r="H216">
-        <v>0.25</v>
-      </c>
-      <c r="I216">
-        <v>0.1111111111116049</v>
-      </c>
-      <c r="J216">
         <v>0.1053605156582708</v>
       </c>
     </row>
-    <row r="217" spans="1:10">
+    <row r="217" spans="1:8">
       <c r="A217" s="1">
         <v>103</v>
       </c>
@@ -7274,22 +6026,16 @@
         <v>33.625</v>
       </c>
       <c r="F217">
-        <v>2.38749999999</v>
+        <v>-0.125</v>
       </c>
       <c r="G217">
-        <v>0.2079162491645852</v>
+        <v>-0.0500000000002</v>
       </c>
       <c r="H217">
-        <v>-0.125</v>
-      </c>
-      <c r="I217">
-        <v>-0.0500000000002</v>
-      </c>
-      <c r="J217">
         <v>-0.05129329438776106</v>
       </c>
     </row>
-    <row r="218" spans="1:10">
+    <row r="218" spans="1:8">
       <c r="A218" s="1">
         <v>102</v>
       </c>
@@ -7306,22 +6052,16 @@
         <v>33.625</v>
       </c>
       <c r="F218">
-        <v>2.34999999999</v>
+        <v>0</v>
       </c>
       <c r="G218">
-        <v>0.164570147151107</v>
+        <v>0</v>
       </c>
       <c r="H218">
         <v>0</v>
       </c>
-      <c r="I218">
-        <v>0</v>
-      </c>
-      <c r="J218">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="219" spans="1:10">
+    </row>
+    <row r="219" spans="1:8">
       <c r="A219" s="1">
         <v>101</v>
       </c>
@@ -7338,22 +6078,16 @@
         <v>33.625</v>
       </c>
       <c r="F219">
-        <v>2.33749999999</v>
+        <v>0.25</v>
       </c>
       <c r="G219">
-        <v>0.132418738183937</v>
+        <v>0.1052631578951801</v>
       </c>
       <c r="H219">
-        <v>0.25</v>
-      </c>
-      <c r="I219">
-        <v>0.1052631578951801</v>
-      </c>
-      <c r="J219">
         <v>0.1000834585573836</v>
       </c>
     </row>
-    <row r="220" spans="1:10">
+    <row r="220" spans="1:8">
       <c r="A220" s="1">
         <v>100</v>
       </c>
@@ -7370,22 +6104,16 @@
         <v>33.625</v>
       </c>
       <c r="F220">
-        <v>2.37499999999</v>
+        <v>0</v>
       </c>
       <c r="G220">
-        <v>0.1559023911155917</v>
+        <v>0</v>
       </c>
       <c r="H220">
         <v>0</v>
       </c>
-      <c r="I220">
-        <v>0</v>
-      </c>
-      <c r="J220">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="221" spans="1:10">
+    </row>
+    <row r="221" spans="1:8">
       <c r="A221" s="1">
         <v>99</v>
       </c>
@@ -7402,22 +6130,16 @@
         <v>33.625</v>
       </c>
       <c r="F221">
-        <v>2.41249999999</v>
+        <v>0</v>
       </c>
       <c r="G221">
-        <v>0.1671866887311659</v>
+        <v>0</v>
       </c>
       <c r="H221">
         <v>0</v>
       </c>
-      <c r="I221">
-        <v>0</v>
-      </c>
-      <c r="J221">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="222" spans="1:10">
+    </row>
+    <row r="222" spans="1:8">
       <c r="A222" s="1">
         <v>98</v>
       </c>
@@ -7434,22 +6156,16 @@
         <v>33.625</v>
       </c>
       <c r="F222">
-        <v>2.44999999999</v>
+        <v>0</v>
       </c>
       <c r="G222">
-        <v>0.1687371394276453</v>
+        <v>0</v>
       </c>
       <c r="H222">
         <v>0</v>
       </c>
-      <c r="I222">
-        <v>0</v>
-      </c>
-      <c r="J222">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="223" spans="1:10">
+    </row>
+    <row r="223" spans="1:8">
       <c r="A223" s="1">
         <v>97</v>
       </c>
@@ -7466,22 +6182,16 @@
         <v>33.625</v>
       </c>
       <c r="F223">
-        <v>2.48749999999</v>
+        <v>0</v>
       </c>
       <c r="G223">
-        <v>0.1608354922134957</v>
+        <v>0</v>
       </c>
       <c r="H223">
         <v>0</v>
       </c>
-      <c r="I223">
-        <v>0</v>
-      </c>
-      <c r="J223">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="224" spans="1:10">
+    </row>
+    <row r="224" spans="1:8">
       <c r="A224" s="1">
         <v>96</v>
       </c>
@@ -7498,22 +6208,16 @@
         <v>33.625</v>
       </c>
       <c r="F224">
-        <v>2.52499999999</v>
+        <v>0</v>
       </c>
       <c r="G224">
-        <v>0.1419115530493916</v>
+        <v>0</v>
       </c>
       <c r="H224">
         <v>0</v>
       </c>
-      <c r="I224">
-        <v>0</v>
-      </c>
-      <c r="J224">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="225" spans="1:10">
+    </row>
+    <row r="225" spans="1:8">
       <c r="A225" s="1">
         <v>95</v>
       </c>
@@ -7530,22 +6234,16 @@
         <v>33.625</v>
       </c>
       <c r="F225">
-        <v>2.56249999999</v>
+        <v>0</v>
       </c>
       <c r="G225">
-        <v>0.1062295731998538</v>
+        <v>0</v>
       </c>
       <c r="H225">
         <v>0</v>
       </c>
-      <c r="I225">
-        <v>0</v>
-      </c>
-      <c r="J225">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="226" spans="1:10">
+    </row>
+    <row r="226" spans="1:8">
       <c r="A226" s="1">
         <v>94</v>
       </c>
@@ -7562,22 +6260,16 @@
         <v>33.625</v>
       </c>
       <c r="F226">
-        <v>2.59999999999</v>
+        <v>0.25</v>
       </c>
       <c r="G226">
-        <v>0.1419115530493879</v>
+        <v>0.09523809523845805</v>
       </c>
       <c r="H226">
-        <v>0.25</v>
-      </c>
-      <c r="I226">
-        <v>0.09523809523845805</v>
-      </c>
-      <c r="J226">
         <v>0.09097177820605806</v>
       </c>
     </row>
-    <row r="227" spans="1:10">
+    <row r="227" spans="1:8">
       <c r="A227" s="1">
         <v>93</v>
       </c>
@@ -7594,22 +6286,16 @@
         <v>33.625</v>
       </c>
       <c r="F227">
-        <v>2.64999999999</v>
+        <v>0</v>
       </c>
       <c r="G227">
-        <v>0.1419115530493854</v>
+        <v>0</v>
       </c>
       <c r="H227">
         <v>0</v>
       </c>
-      <c r="I227">
-        <v>0</v>
-      </c>
-      <c r="J227">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="228" spans="1:10">
+    </row>
+    <row r="228" spans="1:8">
       <c r="A228" s="1">
         <v>92</v>
       </c>
@@ -7626,22 +6312,16 @@
         <v>33.625</v>
       </c>
       <c r="F228">
-        <v>2.69999999999</v>
+        <v>0</v>
       </c>
       <c r="G228">
-        <v>0.1207614728849075</v>
+        <v>0</v>
       </c>
       <c r="H228">
         <v>0</v>
       </c>
-      <c r="I228">
-        <v>0</v>
-      </c>
-      <c r="J228">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="229" spans="1:10">
+    </row>
+    <row r="229" spans="1:8">
       <c r="A229" s="1">
         <v>91</v>
       </c>
@@ -7658,22 +6338,16 @@
         <v>34.5</v>
       </c>
       <c r="F229">
-        <v>2.61249999999</v>
+        <v>-1.125</v>
       </c>
       <c r="G229">
-        <v>0.3251602169187781</v>
+        <v>-0.391304347827448</v>
       </c>
       <c r="H229">
-        <v>-1.125</v>
-      </c>
-      <c r="I229">
-        <v>-0.391304347827448</v>
-      </c>
-      <c r="J229">
         <v>-0.4964368863161271</v>
       </c>
     </row>
-    <row r="230" spans="1:10">
+    <row r="230" spans="1:8">
       <c r="A230" s="1">
         <v>90</v>
       </c>
@@ -7690,22 +6364,16 @@
         <v>34.5</v>
       </c>
       <c r="F230">
-        <v>2.56249999999</v>
+        <v>0.375</v>
       </c>
       <c r="G230">
-        <v>0.3596390937840027</v>
+        <v>0.2142857142869388</v>
       </c>
       <c r="H230">
-        <v>0.375</v>
-      </c>
-      <c r="I230">
-        <v>0.2142857142869388</v>
-      </c>
-      <c r="J230">
         <v>0.1941560144419659</v>
       </c>
     </row>
-    <row r="231" spans="1:10">
+    <row r="231" spans="1:8">
       <c r="A231" s="1">
         <v>89</v>
       </c>
@@ -7722,22 +6390,16 @@
         <v>34</v>
       </c>
       <c r="F231">
-        <v>2.53749999999</v>
+        <v>0.25</v>
       </c>
       <c r="G231">
-        <v>0.3634804747927415</v>
+        <v>0.1176470588240831</v>
       </c>
       <c r="H231">
-        <v>0.25</v>
-      </c>
-      <c r="I231">
-        <v>0.1176470588240831</v>
-      </c>
-      <c r="J231">
         <v>0.1112256351107197</v>
       </c>
     </row>
-    <row r="232" spans="1:10">
+    <row r="232" spans="1:8">
       <c r="A232" s="1">
         <v>88</v>
       </c>
@@ -7754,22 +6416,16 @@
         <v>34</v>
       </c>
       <c r="F232">
-        <v>2.51249999999</v>
+        <v>0</v>
       </c>
       <c r="G232">
-        <v>0.365386021139898</v>
+        <v>0</v>
       </c>
       <c r="H232">
         <v>0</v>
       </c>
-      <c r="I232">
-        <v>0</v>
-      </c>
-      <c r="J232">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="233" spans="1:10">
+    </row>
+    <row r="233" spans="1:8">
       <c r="A233" s="1">
         <v>87</v>
       </c>
@@ -7786,22 +6442,16 @@
         <v>35</v>
       </c>
       <c r="F233">
-        <v>2.38749999999</v>
+        <v>-1</v>
       </c>
       <c r="G233">
-        <v>0.5084357820260567</v>
+        <v>-0.4210526315807202</v>
       </c>
       <c r="H233">
-        <v>-1</v>
-      </c>
-      <c r="I233">
-        <v>-0.4210526315807202</v>
-      </c>
-      <c r="J233">
         <v>-0.546543706371132</v>
       </c>
     </row>
-    <row r="234" spans="1:10">
+    <row r="234" spans="1:8">
       <c r="A234" s="1">
         <v>86</v>
       </c>
@@ -7818,22 +6468,16 @@
         <v>35.25</v>
       </c>
       <c r="F234">
-        <v>2.23749999999</v>
+        <v>-0.25</v>
       </c>
       <c r="G234">
-        <v>0.6358775650844927</v>
+        <v>-0.1818181818195041</v>
       </c>
       <c r="H234">
-        <v>-0.25</v>
-      </c>
-      <c r="I234">
-        <v>-0.1818181818195041</v>
-      </c>
-      <c r="J234">
         <v>-0.2006706954637673</v>
       </c>
     </row>
-    <row r="235" spans="1:10">
+    <row r="235" spans="1:8">
       <c r="A235" s="1">
         <v>85</v>
       </c>
@@ -7850,22 +6494,16 @@
         <v>35.25</v>
       </c>
       <c r="F235">
-        <v>2.09999999999</v>
+        <v>0.125</v>
       </c>
       <c r="G235">
-        <v>0.6892024376045166</v>
+        <v>0.1111111111120988</v>
       </c>
       <c r="H235">
-        <v>0.125</v>
-      </c>
-      <c r="I235">
-        <v>0.1111111111120988</v>
-      </c>
-      <c r="J235">
         <v>0.1053605156587152</v>
       </c>
     </row>
-    <row r="236" spans="1:10">
+    <row r="236" spans="1:8">
       <c r="A236" s="1">
         <v>84</v>
       </c>
@@ -7882,22 +6520,16 @@
         <v>35.25</v>
       </c>
       <c r="F236">
-        <v>1.97499999999</v>
+        <v>0.375</v>
       </c>
       <c r="G236">
-        <v>0.6449590856963189</v>
+        <v>0.3000000000024</v>
       </c>
       <c r="H236">
-        <v>0.375</v>
-      </c>
-      <c r="I236">
-        <v>0.3000000000024</v>
-      </c>
-      <c r="J236">
         <v>0.2623642644693373</v>
       </c>
     </row>
-    <row r="237" spans="1:10">
+    <row r="237" spans="1:8">
       <c r="A237" s="1">
         <v>83</v>
       </c>
@@ -7914,22 +6546,16 @@
         <v>35.25</v>
       </c>
       <c r="F237">
-        <v>1.87999999999</v>
+        <v>0.2999999999999972</v>
       </c>
       <c r="G237">
-        <v>0.5623363959608457</v>
+        <v>0.184615384616519</v>
       </c>
       <c r="H237">
-        <v>0.2999999999999972</v>
-      </c>
-      <c r="I237">
-        <v>0.184615384616519</v>
-      </c>
-      <c r="J237">
         <v>0.1694181519590044</v>
       </c>
     </row>
-    <row r="238" spans="1:10">
+    <row r="238" spans="1:8">
       <c r="A238" s="1">
         <v>82</v>
       </c>
@@ -7946,22 +6572,16 @@
         <v>35.25</v>
       </c>
       <c r="F238">
-        <v>1.754999999989999</v>
+        <v>-0.2999999999999972</v>
       </c>
       <c r="G238">
-        <v>0.4428129778285026</v>
+        <v>-0.1558441558449642</v>
       </c>
       <c r="H238">
-        <v>-0.2999999999999972</v>
-      </c>
-      <c r="I238">
-        <v>-0.1558441558449642</v>
-      </c>
-      <c r="J238">
         <v>-0.1694181519590043</v>
       </c>
     </row>
-    <row r="239" spans="1:10">
+    <row r="239" spans="1:8">
       <c r="A239" s="1">
         <v>81</v>
       </c>
@@ -7978,22 +6598,16 @@
         <v>35.25</v>
       </c>
       <c r="F239">
-        <v>1.742499999989999</v>
+        <v>0</v>
       </c>
       <c r="G239">
-        <v>0.4447299430241177</v>
+        <v>0</v>
       </c>
       <c r="H239">
         <v>0</v>
       </c>
-      <c r="I239">
-        <v>0</v>
-      </c>
-      <c r="J239">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="240" spans="1:10">
+    </row>
+    <row r="240" spans="1:8">
       <c r="A240" s="1">
         <v>80</v>
       </c>
@@ -8010,22 +6624,16 @@
         <v>36</v>
       </c>
       <c r="F240">
-        <v>1.61749999999</v>
+        <v>-0.75</v>
       </c>
       <c r="G240">
-        <v>0.4977797929026819</v>
+        <v>-0.4615384615413018</v>
       </c>
       <c r="H240">
-        <v>-0.75</v>
-      </c>
-      <c r="I240">
-        <v>-0.4615384615413018</v>
-      </c>
-      <c r="J240">
         <v>-0.6190392084114983</v>
       </c>
     </row>
-    <row r="241" spans="1:10">
+    <row r="241" spans="1:8">
       <c r="A241" s="1">
         <v>79</v>
       </c>
@@ -8042,22 +6650,16 @@
         <v>36</v>
       </c>
       <c r="F241">
-        <v>1.46749999999</v>
+        <v>0</v>
       </c>
       <c r="G241">
-        <v>0.4693449927529206</v>
+        <v>0</v>
       </c>
       <c r="H241">
         <v>0</v>
       </c>
-      <c r="I241">
-        <v>0</v>
-      </c>
-      <c r="J241">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="242" spans="1:10">
+    </row>
+    <row r="242" spans="1:8">
       <c r="A242" s="1">
         <v>78</v>
       </c>
@@ -8074,22 +6676,16 @@
         <v>36</v>
       </c>
       <c r="F242">
-        <v>1.317499999989999</v>
+        <v>0</v>
       </c>
       <c r="G242">
-        <v>0.3778686573695168</v>
+        <v>0</v>
       </c>
       <c r="H242">
         <v>0</v>
       </c>
-      <c r="I242">
-        <v>0</v>
-      </c>
-      <c r="J242">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="243" spans="1:10">
+    </row>
+    <row r="243" spans="1:8">
       <c r="A243" s="1">
         <v>77</v>
       </c>
@@ -8106,22 +6702,16 @@
         <v>36</v>
       </c>
       <c r="F243">
-        <v>1.30499999999</v>
+        <v>0.375</v>
       </c>
       <c r="G243">
-        <v>0.3778227097462767</v>
+        <v>0.4285714285763265</v>
       </c>
       <c r="H243">
-        <v>0.375</v>
-      </c>
-      <c r="I243">
-        <v>0.4285714285763265</v>
-      </c>
-      <c r="J243">
         <v>0.3566749439421609</v>
       </c>
     </row>
-    <row r="244" spans="1:10">
+    <row r="244" spans="1:8">
       <c r="A244" s="1">
         <v>76</v>
       </c>
@@ -8138,22 +6728,16 @@
         <v>36</v>
       </c>
       <c r="F244">
-        <v>1.317499999989999</v>
+        <v>0</v>
       </c>
       <c r="G244">
-        <v>0.3732458974992479</v>
+        <v>0</v>
       </c>
       <c r="H244">
         <v>0</v>
       </c>
-      <c r="I244">
-        <v>0</v>
-      </c>
-      <c r="J244">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="245" spans="1:10">
+    </row>
+    <row r="245" spans="1:8">
       <c r="A245" s="1">
         <v>75</v>
       </c>
@@ -8170,22 +6754,16 @@
         <v>36</v>
       </c>
       <c r="F245">
-        <v>1.31749999999</v>
+        <v>0</v>
       </c>
       <c r="G245">
-        <v>0.3732458974992479</v>
+        <v>0</v>
       </c>
       <c r="H245">
         <v>0</v>
       </c>
-      <c r="I245">
-        <v>0</v>
-      </c>
-      <c r="J245">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="246" spans="1:10">
+    </row>
+    <row r="246" spans="1:8">
       <c r="A246" s="1">
         <v>74</v>
       </c>
@@ -8202,22 +6780,16 @@
         <v>36</v>
       </c>
       <c r="F246">
-        <v>1.26749999999</v>
+        <v>-0.125</v>
       </c>
       <c r="G246">
-        <v>0.3607573053083653</v>
+        <v>-0.1000000000008</v>
       </c>
       <c r="H246">
-        <v>-0.125</v>
-      </c>
-      <c r="I246">
-        <v>-0.1000000000008</v>
-      </c>
-      <c r="J246">
         <v>-0.1053605156587152</v>
       </c>
     </row>
-    <row r="247" spans="1:10">
+    <row r="247" spans="1:8">
       <c r="A247" s="1">
         <v>73</v>
       </c>
@@ -8234,22 +6806,16 @@
         <v>36</v>
       </c>
       <c r="F247">
-        <v>1.18749999999</v>
+        <v>0</v>
       </c>
       <c r="G247">
-        <v>0.2779513346693371</v>
+        <v>0</v>
       </c>
       <c r="H247">
         <v>0</v>
       </c>
-      <c r="I247">
-        <v>0</v>
-      </c>
-      <c r="J247">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="248" spans="1:10">
+    </row>
+    <row r="248" spans="1:8">
       <c r="A248" s="1">
         <v>72</v>
       </c>
@@ -8266,22 +6832,16 @@
         <v>36</v>
       </c>
       <c r="F248">
-        <v>1.14999999999</v>
+        <v>0.125</v>
       </c>
       <c r="G248">
-        <v>0.2342244887093002</v>
+        <v>0.1111111111120988</v>
       </c>
       <c r="H248">
-        <v>0.125</v>
-      </c>
-      <c r="I248">
-        <v>0.1111111111120988</v>
-      </c>
-      <c r="J248">
         <v>0.1053605156587152</v>
       </c>
     </row>
-    <row r="249" spans="1:10">
+    <row r="249" spans="1:8">
       <c r="A249" s="1">
         <v>71</v>
       </c>
@@ -8298,22 +6858,16 @@
         <v>35.75</v>
       </c>
       <c r="F249">
-        <v>1.09999999999</v>
+        <v>-0.125</v>
       </c>
       <c r="G249">
-        <v>0.1645701471511649</v>
+        <v>-0.1000000000008</v>
       </c>
       <c r="H249">
-        <v>-0.125</v>
-      </c>
-      <c r="I249">
-        <v>-0.1000000000008</v>
-      </c>
-      <c r="J249">
         <v>-0.1053605156587152</v>
       </c>
     </row>
-    <row r="250" spans="1:10">
+    <row r="250" spans="1:8">
       <c r="A250" s="1">
         <v>70</v>
       </c>
@@ -8330,22 +6884,16 @@
         <v>35.75</v>
       </c>
       <c r="F250">
-        <v>1.12499999999</v>
+        <v>0</v>
       </c>
       <c r="G250">
-        <v>0.1443375672974838</v>
+        <v>0</v>
       </c>
       <c r="H250">
         <v>0</v>
       </c>
-      <c r="I250">
-        <v>0</v>
-      </c>
-      <c r="J250">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="251" spans="1:10">
+    </row>
+    <row r="251" spans="1:8">
       <c r="A251" s="1">
         <v>69</v>
       </c>
@@ -8362,22 +6910,16 @@
         <v>35.75</v>
       </c>
       <c r="F251">
-        <v>1.14999999999</v>
+        <v>0</v>
       </c>
       <c r="G251">
-        <v>0.1148670729341807</v>
+        <v>0</v>
       </c>
       <c r="H251">
         <v>0</v>
       </c>
-      <c r="I251">
-        <v>0</v>
-      </c>
-      <c r="J251">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="252" spans="1:10">
+    </row>
+    <row r="252" spans="1:8">
       <c r="A252" s="1">
         <v>68</v>
       </c>
@@ -8394,22 +6936,16 @@
         <v>35.75</v>
       </c>
       <c r="F252">
-        <v>1.14999999999</v>
+        <v>-0.25</v>
       </c>
       <c r="G252">
-        <v>0.1148670729341807</v>
+        <v>-0.2222222222241975</v>
       </c>
       <c r="H252">
-        <v>-0.25</v>
-      </c>
-      <c r="I252">
-        <v>-0.2222222222241975</v>
-      </c>
-      <c r="J252">
         <v>-0.2513144282834457</v>
       </c>
     </row>
-    <row r="253" spans="1:10">
+    <row r="253" spans="1:8">
       <c r="A253" s="1">
         <v>67</v>
       </c>
@@ -8426,22 +6962,16 @@
         <v>35.75</v>
       </c>
       <c r="F253">
-        <v>1.11249999999</v>
+        <v>0</v>
       </c>
       <c r="G253">
-        <v>0.1375631168269083</v>
+        <v>0</v>
       </c>
       <c r="H253">
         <v>0</v>
       </c>
-      <c r="I253">
-        <v>0</v>
-      </c>
-      <c r="J253">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="254" spans="1:10">
+    </row>
+    <row r="254" spans="1:8">
       <c r="A254" s="1">
         <v>66</v>
       </c>
@@ -8458,22 +6988,16 @@
         <v>35.5</v>
       </c>
       <c r="F254">
-        <v>1.09999999999</v>
+        <v>0.25</v>
       </c>
       <c r="G254">
-        <v>0.1290994448736685</v>
+        <v>0.285714285717551</v>
       </c>
       <c r="H254">
-        <v>0.25</v>
-      </c>
-      <c r="I254">
-        <v>0.285714285717551</v>
-      </c>
-      <c r="J254">
         <v>0.2513144282834457</v>
       </c>
     </row>
-    <row r="255" spans="1:10">
+    <row r="255" spans="1:8">
       <c r="A255" s="1">
         <v>65</v>
       </c>
@@ -8490,22 +7014,16 @@
         <v>35.5</v>
       </c>
       <c r="F255">
-        <v>1.08749999999</v>
+        <v>0</v>
       </c>
       <c r="G255">
-        <v>0.1185854122564108</v>
+        <v>0</v>
       </c>
       <c r="H255">
         <v>0</v>
       </c>
-      <c r="I255">
-        <v>0</v>
-      </c>
-      <c r="J255">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="256" spans="1:10">
+    </row>
+    <row r="256" spans="1:8">
       <c r="A256" s="1">
         <v>64</v>
       </c>
@@ -8522,22 +7040,16 @@
         <v>35.5</v>
       </c>
       <c r="F256">
-        <v>1.06249999999</v>
+        <v>-0.25</v>
       </c>
       <c r="G256">
-        <v>0.1350154312169166</v>
+        <v>-0.2222222222241975</v>
       </c>
       <c r="H256">
-        <v>-0.25</v>
-      </c>
-      <c r="I256">
-        <v>-0.2222222222241975</v>
-      </c>
-      <c r="J256">
         <v>-0.2513144282834457</v>
       </c>
     </row>
-    <row r="257" spans="1:10">
+    <row r="257" spans="1:8">
       <c r="A257" s="1">
         <v>63</v>
       </c>
@@ -8554,22 +7066,16 @@
         <v>35.5</v>
       </c>
       <c r="F257">
-        <v>1.06249999999</v>
+        <v>0.25</v>
       </c>
       <c r="G257">
-        <v>0.1350154312169166</v>
+        <v>0.285714285717551</v>
       </c>
       <c r="H257">
-        <v>0.25</v>
-      </c>
-      <c r="I257">
-        <v>0.285714285717551</v>
-      </c>
-      <c r="J257">
         <v>0.2513144282834457</v>
       </c>
     </row>
-    <row r="258" spans="1:10">
+    <row r="258" spans="1:8">
       <c r="A258" s="1">
         <v>62</v>
       </c>
@@ -8586,22 +7092,16 @@
         <v>35</v>
       </c>
       <c r="F258">
-        <v>1.09999999999</v>
+        <v>0.5</v>
       </c>
       <c r="G258">
-        <v>0.2188987589427802</v>
+        <v>0.444444444448395</v>
       </c>
       <c r="H258">
-        <v>0.5</v>
-      </c>
-      <c r="I258">
-        <v>0.444444444448395</v>
-      </c>
-      <c r="J258">
         <v>0.3677247801280524</v>
       </c>
     </row>
-    <row r="259" spans="1:10">
+    <row r="259" spans="1:8">
       <c r="A259" s="1">
         <v>61</v>
       </c>
@@ -8618,22 +7118,16 @@
         <v>35</v>
       </c>
       <c r="F259">
-        <v>1.13749999999</v>
+        <v>-0.125</v>
       </c>
       <c r="G259">
-        <v>0.2531057091415012</v>
+        <v>-0.0769230769235503</v>
       </c>
       <c r="H259">
-        <v>-0.125</v>
-      </c>
-      <c r="I259">
-        <v>-0.0769230769235503</v>
-      </c>
-      <c r="J259">
         <v>-0.08004270767404922</v>
       </c>
     </row>
-    <row r="260" spans="1:10">
+    <row r="260" spans="1:8">
       <c r="A260" s="1">
         <v>60</v>
       </c>
@@ -8650,22 +7144,16 @@
         <v>35</v>
       </c>
       <c r="F260">
-        <v>1.19999999999</v>
+        <v>0.25</v>
       </c>
       <c r="G260">
-        <v>0.3184162195757467</v>
+        <v>0.1666666666677778</v>
       </c>
       <c r="H260">
-        <v>0.25</v>
-      </c>
-      <c r="I260">
-        <v>0.1666666666677778</v>
-      </c>
-      <c r="J260">
         <v>0.1541506798282107</v>
       </c>
     </row>
-    <row r="261" spans="1:10">
+    <row r="261" spans="1:8">
       <c r="A261" s="1">
         <v>59</v>
       </c>
@@ -8682,22 +7170,16 @@
         <v>35</v>
       </c>
       <c r="F261">
-        <v>1.26249999999</v>
+        <v>0</v>
       </c>
       <c r="G261">
-        <v>0.3606032753903416</v>
+        <v>0</v>
       </c>
       <c r="H261">
         <v>0</v>
       </c>
-      <c r="I261">
-        <v>0</v>
-      </c>
-      <c r="J261">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="262" spans="1:10">
+    </row>
+    <row r="262" spans="1:8">
       <c r="A262" s="1">
         <v>58</v>
       </c>
@@ -8714,22 +7196,16 @@
         <v>35</v>
       </c>
       <c r="F262">
-        <v>1.34999999999</v>
+        <v>0</v>
       </c>
       <c r="G262">
-        <v>0.3622844186547623</v>
+        <v>0</v>
       </c>
       <c r="H262">
         <v>0</v>
       </c>
-      <c r="I262">
-        <v>0</v>
-      </c>
-      <c r="J262">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="263" spans="1:10">
+    </row>
+    <row r="263" spans="1:8">
       <c r="A263" s="1">
         <v>57</v>
       </c>
@@ -8746,22 +7222,16 @@
         <v>35</v>
       </c>
       <c r="F263">
-        <v>1.43749999999</v>
+        <v>0</v>
       </c>
       <c r="G263">
-        <v>0.3397813839646114</v>
+        <v>0</v>
       </c>
       <c r="H263">
         <v>0</v>
       </c>
-      <c r="I263">
-        <v>0</v>
-      </c>
-      <c r="J263">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="264" spans="1:10">
+    </row>
+    <row r="264" spans="1:8">
       <c r="A264" s="1">
         <v>56</v>
       </c>
@@ -8778,22 +7248,16 @@
         <v>35</v>
       </c>
       <c r="F264">
-        <v>1.49999999999</v>
+        <v>0</v>
       </c>
       <c r="G264">
-        <v>0.3333333333333587</v>
+        <v>0</v>
       </c>
       <c r="H264">
         <v>0</v>
       </c>
-      <c r="I264">
-        <v>0</v>
-      </c>
-      <c r="J264">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="265" spans="1:10">
+    </row>
+    <row r="265" spans="1:8">
       <c r="A265" s="1">
         <v>55</v>
       </c>
@@ -8810,22 +7274,16 @@
         <v>35</v>
       </c>
       <c r="F265">
-        <v>1.56249999999</v>
+        <v>0</v>
       </c>
       <c r="G265">
-        <v>0.3131936745494612</v>
+        <v>0</v>
       </c>
       <c r="H265">
         <v>0</v>
       </c>
-      <c r="I265">
-        <v>0</v>
-      </c>
-      <c r="J265">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="266" spans="1:10">
+    </row>
+    <row r="266" spans="1:8">
       <c r="A266" s="1">
         <v>54</v>
       </c>
@@ -8842,22 +7300,16 @@
         <v>35</v>
       </c>
       <c r="F266">
-        <v>1.64999999999</v>
+        <v>0</v>
       </c>
       <c r="G266">
-        <v>0.2024159633582218</v>
+        <v>0</v>
       </c>
       <c r="H266">
         <v>0</v>
       </c>
-      <c r="I266">
-        <v>0</v>
-      </c>
-      <c r="J266">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="267" spans="1:10">
+    </row>
+    <row r="267" spans="1:8">
       <c r="A267" s="1">
         <v>53</v>
       </c>
@@ -8874,22 +7326,16 @@
         <v>35</v>
       </c>
       <c r="F267">
-        <v>1.71249999999</v>
+        <v>0</v>
       </c>
       <c r="G267">
-        <v>0.08436856971390137</v>
+        <v>0</v>
       </c>
       <c r="H267">
         <v>0</v>
       </c>
-      <c r="I267">
-        <v>0</v>
-      </c>
-      <c r="J267">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="268" spans="1:10">
+    </row>
+    <row r="268" spans="1:8">
       <c r="A268" s="1">
         <v>52</v>
       </c>
@@ -8906,22 +7352,16 @@
         <v>35</v>
       </c>
       <c r="F268">
-        <v>1.72499999999</v>
+        <v>0</v>
       </c>
       <c r="G268">
-        <v>0.07905694150429617</v>
+        <v>0</v>
       </c>
       <c r="H268">
         <v>0</v>
       </c>
-      <c r="I268">
-        <v>0</v>
-      </c>
-      <c r="J268">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="269" spans="1:10">
+    </row>
+    <row r="269" spans="1:8">
       <c r="A269" s="1">
         <v>51</v>
       </c>
@@ -8938,22 +7378,16 @@
         <v>35</v>
       </c>
       <c r="F269">
-        <v>1.69999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="G269">
-        <v>0.1581138830084634</v>
+        <v>-0.2857142857159184</v>
       </c>
       <c r="H269">
-        <v>-0.5</v>
-      </c>
-      <c r="I269">
-        <v>-0.2857142857159184</v>
-      </c>
-      <c r="J269">
         <v>-0.3364722366234987</v>
       </c>
     </row>
-    <row r="270" spans="1:10">
+    <row r="270" spans="1:8">
       <c r="A270" s="1">
         <v>50</v>
       </c>
@@ -8970,22 +7404,16 @@
         <v>35</v>
       </c>
       <c r="F270">
-        <v>1.64999999999</v>
+        <v>0</v>
       </c>
       <c r="G270">
-        <v>0.210818510677927</v>
+        <v>0</v>
       </c>
       <c r="H270">
         <v>0</v>
       </c>
-      <c r="I270">
-        <v>0</v>
-      </c>
-      <c r="J270">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="271" spans="1:10">
+    </row>
+    <row r="271" spans="1:8">
       <c r="A271" s="1">
         <v>49</v>
       </c>
@@ -9002,22 +7430,16 @@
         <v>35</v>
       </c>
       <c r="F271">
-        <v>1.59999999999</v>
+        <v>0</v>
       </c>
       <c r="G271">
-        <v>0.241522945769856</v>
+        <v>0</v>
       </c>
       <c r="H271">
         <v>0</v>
       </c>
-      <c r="I271">
-        <v>0</v>
-      </c>
-      <c r="J271">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="272" spans="1:10">
+    </row>
+    <row r="272" spans="1:8">
       <c r="A272" s="1">
         <v>48</v>
       </c>
@@ -9034,22 +7456,16 @@
         <v>35</v>
       </c>
       <c r="F272">
-        <v>1.54999999999</v>
+        <v>0</v>
       </c>
       <c r="G272">
-        <v>0.2581988897471924</v>
+        <v>0</v>
       </c>
       <c r="H272">
         <v>0</v>
       </c>
-      <c r="I272">
-        <v>0</v>
-      </c>
-      <c r="J272">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="273" spans="1:10">
+    </row>
+    <row r="273" spans="1:8">
       <c r="A273" s="1">
         <v>47</v>
       </c>
@@ -9066,22 +7482,16 @@
         <v>35</v>
       </c>
       <c r="F273">
-        <v>1.49999999999</v>
+        <v>0</v>
       </c>
       <c r="G273">
-        <v>0.263523138347397</v>
+        <v>0</v>
       </c>
       <c r="H273">
         <v>0</v>
       </c>
-      <c r="I273">
-        <v>0</v>
-      </c>
-      <c r="J273">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="274" spans="1:10">
+    </row>
+    <row r="274" spans="1:8">
       <c r="A274" s="1">
         <v>46</v>
       </c>
@@ -9098,22 +7508,16 @@
         <v>32</v>
       </c>
       <c r="F274">
-        <v>1.38749999999</v>
+        <v>-0.625</v>
       </c>
       <c r="G274">
-        <v>0.3653860211399211</v>
+        <v>-0.500000000004</v>
       </c>
       <c r="H274">
-        <v>-0.625</v>
-      </c>
-      <c r="I274">
-        <v>-0.500000000004</v>
-      </c>
-      <c r="J274">
         <v>-0.6931471805679453</v>
       </c>
     </row>
-    <row r="275" spans="1:10">
+    <row r="275" spans="1:8">
       <c r="A275" s="1">
         <v>45</v>
       </c>
@@ -9130,22 +7534,16 @@
         <v>31.75</v>
       </c>
       <c r="F275">
-        <v>1.36249999999</v>
+        <v>0.875</v>
       </c>
       <c r="G275">
-        <v>0.3458584328241461</v>
+        <v>1.4000000000224</v>
       </c>
       <c r="H275">
-        <v>0.875</v>
-      </c>
-      <c r="I275">
-        <v>1.4000000000224</v>
-      </c>
-      <c r="J275">
         <v>0.8754687373632334</v>
       </c>
     </row>
-    <row r="276" spans="1:10">
+    <row r="276" spans="1:8">
       <c r="A276" s="1">
         <v>44</v>
       </c>
@@ -9162,22 +7560,16 @@
         <v>31.75</v>
       </c>
       <c r="F276">
-        <v>1.38749999999</v>
+        <v>0.5</v>
       </c>
       <c r="G276">
-        <v>0.3839216499930055</v>
+        <v>0.3333333333355555</v>
       </c>
       <c r="H276">
-        <v>0.5</v>
-      </c>
-      <c r="I276">
-        <v>0.3333333333355555</v>
-      </c>
-      <c r="J276">
         <v>0.2876820724534475</v>
       </c>
     </row>
-    <row r="277" spans="1:10">
+    <row r="277" spans="1:8">
       <c r="A277" s="1">
         <v>43</v>
       </c>
@@ -9194,22 +7586,16 @@
         <v>31.75</v>
       </c>
       <c r="F277">
-        <v>1.48749999999</v>
+        <v>0.75</v>
       </c>
       <c r="G277">
-        <v>0.5726704016176372</v>
+        <v>0.375000000001875</v>
       </c>
       <c r="H277">
-        <v>0.75</v>
-      </c>
-      <c r="I277">
-        <v>0.375000000001875</v>
-      </c>
-      <c r="J277">
         <v>0.3184537311198982</v>
       </c>
     </row>
-    <row r="278" spans="1:10">
+    <row r="278" spans="1:8">
       <c r="A278" s="1">
         <v>42</v>
       </c>
@@ -9226,22 +7612,16 @@
         <v>30.5</v>
       </c>
       <c r="F278">
-        <v>1.46249999999</v>
+        <v>-1.25</v>
       </c>
       <c r="G278">
-        <v>0.5653477297695401</v>
+        <v>-0.4545454545471074</v>
       </c>
       <c r="H278">
-        <v>-1.25</v>
-      </c>
-      <c r="I278">
-        <v>-0.4545454545471074</v>
-      </c>
-      <c r="J278">
         <v>-0.606135803573346</v>
       </c>
     </row>
-    <row r="279" spans="1:10">
+    <row r="279" spans="1:8">
       <c r="A279" s="1">
         <v>41</v>
       </c>
@@ -9258,22 +7638,16 @@
         <v>30.5</v>
       </c>
       <c r="F279">
-        <v>1.46249999999</v>
+        <v>-0.25</v>
       </c>
       <c r="G279">
-        <v>0.5653477297695401</v>
+        <v>-0.1666666666677778</v>
       </c>
       <c r="H279">
-        <v>-0.25</v>
-      </c>
-      <c r="I279">
-        <v>-0.1666666666677778</v>
-      </c>
-      <c r="J279">
         <v>-0.1823215567952879</v>
       </c>
     </row>
-    <row r="280" spans="1:10">
+    <row r="280" spans="1:8">
       <c r="A280" s="1">
         <v>40</v>
       </c>
@@ -9290,22 +7664,16 @@
         <v>30.875</v>
       </c>
       <c r="F280">
-        <v>1.44999999999</v>
+        <v>-0.125</v>
       </c>
       <c r="G280">
-        <v>0.5719119978924649</v>
+        <v>-0.1000000000008</v>
       </c>
       <c r="H280">
-        <v>-0.125</v>
-      </c>
-      <c r="I280">
-        <v>-0.1000000000008</v>
-      </c>
-      <c r="J280">
         <v>-0.1053605156587152</v>
       </c>
     </row>
-    <row r="281" spans="1:10">
+    <row r="281" spans="1:8">
       <c r="A281" s="1">
         <v>39</v>
       </c>
@@ -9322,22 +7690,16 @@
         <v>30.875</v>
       </c>
       <c r="F281">
-        <v>1.48749999999</v>
+        <v>0.5</v>
       </c>
       <c r="G281">
-        <v>0.5696307283378274</v>
+        <v>0.444444444448395</v>
       </c>
       <c r="H281">
-        <v>0.5</v>
-      </c>
-      <c r="I281">
-        <v>0.444444444448395</v>
-      </c>
-      <c r="J281">
         <v>0.3677247801280524</v>
       </c>
     </row>
-    <row r="282" spans="1:10">
+    <row r="282" spans="1:8">
       <c r="A282" s="1">
         <v>38</v>
       </c>
@@ -9354,22 +7716,16 @@
         <v>30.875</v>
       </c>
       <c r="F282">
-        <v>1.62499999999</v>
+        <v>1</v>
       </c>
       <c r="G282">
-        <v>0.6640573937712291</v>
+        <v>0.6153846153884024</v>
       </c>
       <c r="H282">
-        <v>1</v>
-      </c>
-      <c r="I282">
-        <v>0.6153846153884024</v>
-      </c>
-      <c r="J282">
         <v>0.4795730802642306</v>
       </c>
     </row>
-    <row r="283" spans="1:10">
+    <row r="283" spans="1:8">
       <c r="A283" s="1">
         <v>37</v>
       </c>
@@ -9386,22 +7742,16 @@
         <v>32.5</v>
       </c>
       <c r="F283">
-        <v>1.59999999999</v>
+        <v>-1.625</v>
       </c>
       <c r="G283">
-        <v>0.6841458583924709</v>
+        <v>-0.6190476190499773</v>
       </c>
       <c r="H283">
-        <v>-1.625</v>
-      </c>
-      <c r="I283">
-        <v>-0.6190476190499773</v>
-      </c>
-      <c r="J283">
         <v>-0.9650808960497774</v>
       </c>
     </row>
-    <row r="284" spans="1:10">
+    <row r="284" spans="1:8">
       <c r="A284" s="1">
         <v>36</v>
       </c>
@@ -9418,22 +7768,16 @@
         <v>31.75</v>
       </c>
       <c r="F284">
-        <v>1.68749999999</v>
+        <v>0.5</v>
       </c>
       <c r="G284">
-        <v>0.5958479019198072</v>
+        <v>0.500000000005</v>
       </c>
       <c r="H284">
-        <v>0.5</v>
-      </c>
-      <c r="I284">
-        <v>0.500000000005</v>
-      </c>
-      <c r="J284">
         <v>0.4054651081114977</v>
       </c>
     </row>
-    <row r="285" spans="1:10">
+    <row r="285" spans="1:8">
       <c r="A285" s="1">
         <v>35</v>
       </c>
@@ -9450,22 +7794,16 @@
         <v>31.75</v>
       </c>
       <c r="F285">
-        <v>1.68749999999</v>
+        <v>0</v>
       </c>
       <c r="G285">
-        <v>0.5958479019198072</v>
+        <v>0</v>
       </c>
       <c r="H285">
         <v>0</v>
       </c>
-      <c r="I285">
-        <v>0</v>
-      </c>
-      <c r="J285">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="286" spans="1:10">
+    </row>
+    <row r="286" spans="1:8">
       <c r="A286" s="1">
         <v>34</v>
       </c>
@@ -9482,22 +7820,16 @@
         <v>31.875</v>
       </c>
       <c r="F286">
-        <v>1.59999999999</v>
+        <v>-0.375</v>
       </c>
       <c r="G286">
-        <v>0.6089608635481828</v>
+        <v>-0.2500000000016667</v>
       </c>
       <c r="H286">
-        <v>-0.375</v>
-      </c>
-      <c r="I286">
-        <v>-0.2500000000016667</v>
-      </c>
-      <c r="J286">
         <v>-0.2876820724540031</v>
       </c>
     </row>
-    <row r="287" spans="1:10">
+    <row r="287" spans="1:8">
       <c r="A287" s="1">
         <v>33</v>
       </c>
@@ -9514,19 +7846,13 @@
         <v>31.875</v>
       </c>
       <c r="F287">
-        <v>1.26249999999</v>
+        <v>-1.75</v>
       </c>
       <c r="G287">
-        <v>0.8046091183508632</v>
-      </c>
-      <c r="H287">
-        <v>-1.75</v>
-      </c>
-      <c r="I287">
         <v>-1.555555555569383</v>
       </c>
     </row>
-    <row r="288" spans="1:10">
+    <row r="288" spans="1:8">
       <c r="A288" s="1">
         <v>32</v>
       </c>
@@ -9543,22 +7869,16 @@
         <v>31.875</v>
       </c>
       <c r="F288">
-        <v>1.02499999999</v>
+        <v>-0.25</v>
       </c>
       <c r="G288">
-        <v>1.042166546724243</v>
+        <v>-0.3999999999936</v>
       </c>
       <c r="H288">
-        <v>-0.25</v>
-      </c>
-      <c r="I288">
-        <v>-0.3999999999936</v>
-      </c>
-      <c r="J288">
         <v>-0.5108256237553239</v>
       </c>
     </row>
-    <row r="289" spans="1:10">
+    <row r="289" spans="1:8">
       <c r="A289" s="1">
         <v>31</v>
       </c>
@@ -9575,22 +7895,16 @@
         <v>29.75</v>
       </c>
       <c r="F289">
-        <v>1.02499999999</v>
+        <v>2.125</v>
       </c>
       <c r="G289">
-        <v>1.042166546724243</v>
+        <v>1</v>
       </c>
       <c r="H289">
-        <v>2.125</v>
-      </c>
-      <c r="I289">
-        <v>1</v>
-      </c>
-      <c r="J289">
         <v>0.6931471805599453</v>
       </c>
     </row>
-    <row r="290" spans="1:10">
+    <row r="290" spans="1:8">
       <c r="A290" s="1">
         <v>30</v>
       </c>
@@ -9607,22 +7921,16 @@
         <v>31.25</v>
       </c>
       <c r="F290">
-        <v>0.9374999999899998</v>
+        <v>-1</v>
       </c>
       <c r="G290">
-        <v>1.069218951696373</v>
+        <v>-0.8000000000064</v>
       </c>
       <c r="H290">
-        <v>-1</v>
-      </c>
-      <c r="I290">
-        <v>-0.8000000000064</v>
-      </c>
-      <c r="J290">
         <v>-1.6094379124661</v>
       </c>
     </row>
-    <row r="291" spans="1:10">
+    <row r="291" spans="1:8">
       <c r="A291" s="1">
         <v>29</v>
       </c>
@@ -9639,22 +7947,16 @@
         <v>31.25</v>
       </c>
       <c r="F291">
-        <v>0.79999999999</v>
+        <v>0</v>
       </c>
       <c r="G291">
-        <v>1.059349905471393</v>
+        <v>0</v>
       </c>
       <c r="H291">
         <v>0</v>
       </c>
-      <c r="I291">
-        <v>0</v>
-      </c>
-      <c r="J291">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="292" spans="1:10">
+    </row>
+    <row r="292" spans="1:8">
       <c r="A292" s="1">
         <v>28</v>
       </c>
@@ -9671,22 +7973,16 @@
         <v>31.25</v>
       </c>
       <c r="F292">
-        <v>0.56249999999</v>
+        <v>0</v>
       </c>
       <c r="G292">
-        <v>0.8503471513316242</v>
+        <v>0</v>
       </c>
       <c r="H292">
         <v>0</v>
       </c>
-      <c r="I292">
-        <v>0</v>
-      </c>
-      <c r="J292">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="293" spans="1:10">
+    </row>
+    <row r="293" spans="1:8">
       <c r="A293" s="1">
         <v>27</v>
       </c>
@@ -9703,19 +7999,13 @@
         <v>30</v>
       </c>
       <c r="F293">
-        <v>0.46249999999</v>
+        <v>-0.25</v>
       </c>
       <c r="G293">
-        <v>0.8519789055813456</v>
-      </c>
-      <c r="H293">
-        <v>-0.25</v>
-      </c>
-      <c r="I293">
         <v>-1.00000000004</v>
       </c>
     </row>
-    <row r="294" spans="1:10">
+    <row r="294" spans="1:8">
       <c r="A294" s="1">
         <v>26</v>
       </c>
@@ -9732,22 +8022,16 @@
         <v>30.5</v>
       </c>
       <c r="F294">
-        <v>0.31249999999</v>
+        <v>0</v>
       </c>
       <c r="G294">
-        <v>0.7778397792747914</v>
+        <v>0</v>
       </c>
       <c r="H294">
         <v>0</v>
       </c>
-      <c r="I294">
-        <v>0</v>
-      </c>
-      <c r="J294">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="295" spans="1:10">
+    </row>
+    <row r="295" spans="1:8">
       <c r="A295" s="1">
         <v>25</v>
       </c>
@@ -9764,22 +8048,16 @@
         <v>30.5</v>
       </c>
       <c r="F295">
-        <v>0.16249999999</v>
+        <v>0</v>
       </c>
       <c r="G295">
-        <v>0.6589395942640912</v>
+        <v>0</v>
       </c>
       <c r="H295">
         <v>0</v>
       </c>
-      <c r="I295">
-        <v>0</v>
-      </c>
-      <c r="J295">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="296" spans="1:10">
+    </row>
+    <row r="296" spans="1:8">
       <c r="A296" s="1">
         <v>24</v>
       </c>
@@ -9796,22 +8074,16 @@
         <v>30.5</v>
       </c>
       <c r="F296">
-        <v>0.09999999999</v>
+        <v>0.5</v>
       </c>
       <c r="G296">
-        <v>0.5827377912349347</v>
+        <v>1</v>
       </c>
       <c r="H296">
-        <v>0.5</v>
-      </c>
-      <c r="I296">
-        <v>1</v>
-      </c>
-      <c r="J296">
         <v>0.6931471805599453</v>
       </c>
     </row>
-    <row r="297" spans="1:10">
+    <row r="297" spans="1:8">
       <c r="A297" s="1">
         <v>23</v>
       </c>
@@ -9828,22 +8100,16 @@
         <v>30.5</v>
       </c>
       <c r="F297">
-        <v>0.18749999999</v>
+        <v>-0.25</v>
       </c>
       <c r="G297">
-        <v>0.5245699296672913</v>
+        <v>-0.50000000001</v>
       </c>
       <c r="H297">
-        <v>-0.25</v>
-      </c>
-      <c r="I297">
-        <v>-0.50000000001</v>
-      </c>
-      <c r="J297">
         <v>-0.6931471805799453</v>
       </c>
     </row>
-    <row r="298" spans="1:10">
+    <row r="298" spans="1:8">
       <c r="A298" s="1">
         <v>22</v>
       </c>
@@ -9860,22 +8126,16 @@
         <v>30.5</v>
       </c>
       <c r="F298">
-        <v>0.29999999999</v>
+        <v>0</v>
       </c>
       <c r="G298">
-        <v>0.3689323936863573</v>
+        <v>0</v>
       </c>
       <c r="H298">
         <v>0</v>
       </c>
-      <c r="I298">
-        <v>0</v>
-      </c>
-      <c r="J298">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="299" spans="1:10">
+    </row>
+    <row r="299" spans="1:8">
       <c r="A299" s="1">
         <v>21</v>
       </c>
@@ -9892,22 +8152,16 @@
         <v>30</v>
       </c>
       <c r="F299">
-        <v>0.22499999999</v>
+        <v>0.25</v>
       </c>
       <c r="G299">
-        <v>0.1844661968432511</v>
+        <v>1.00000000004</v>
       </c>
       <c r="H299">
-        <v>0.25</v>
-      </c>
-      <c r="I299">
-        <v>1.00000000004</v>
-      </c>
-      <c r="J299">
         <v>0.6931471805799453</v>
       </c>
     </row>
-    <row r="300" spans="1:10">
+    <row r="300" spans="1:8">
       <c r="A300" s="1">
         <v>20</v>
       </c>
@@ -9924,22 +8178,16 @@
         <v>30</v>
       </c>
       <c r="F300">
-        <v>0.24999999999</v>
+        <v>0</v>
       </c>
       <c r="G300">
-        <v>0.204124145232017</v>
+        <v>0</v>
       </c>
       <c r="H300">
         <v>0</v>
       </c>
-      <c r="I300">
-        <v>0</v>
-      </c>
-      <c r="J300">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="301" spans="1:10">
+    </row>
+    <row r="301" spans="1:8">
       <c r="A301" s="1">
         <v>19</v>
       </c>
@@ -9956,22 +8204,16 @@
         <v>30</v>
       </c>
       <c r="F301">
-        <v>0.27499999999</v>
+        <v>0</v>
       </c>
       <c r="G301">
-        <v>0.2188987589428072</v>
+        <v>0</v>
       </c>
       <c r="H301">
         <v>0</v>
       </c>
-      <c r="I301">
-        <v>0</v>
-      </c>
-      <c r="J301">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="302" spans="1:10">
+    </row>
+    <row r="302" spans="1:8">
       <c r="A302" s="1">
         <v>18</v>
       </c>
@@ -9988,22 +8230,16 @@
         <v>30</v>
       </c>
       <c r="F302">
-        <v>0.29999999999</v>
+        <v>0</v>
       </c>
       <c r="G302">
-        <v>0.2297341458682448</v>
+        <v>0</v>
       </c>
       <c r="H302">
         <v>0</v>
       </c>
-      <c r="I302">
-        <v>0</v>
-      </c>
-      <c r="J302">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="303" spans="1:10">
+    </row>
+    <row r="303" spans="1:8">
       <c r="A303" s="1">
         <v>17</v>
       </c>
@@ -10020,22 +8256,16 @@
         <v>29.5</v>
       </c>
       <c r="F303">
-        <v>0.31249999999</v>
+        <v>-0.375</v>
       </c>
       <c r="G303">
-        <v>0.2144922946039751</v>
+        <v>-0.750000000015</v>
       </c>
       <c r="H303">
-        <v>-0.375</v>
-      </c>
-      <c r="I303">
-        <v>-0.750000000015</v>
-      </c>
-      <c r="J303">
         <v>-1.386294361179891</v>
       </c>
     </row>
-    <row r="304" spans="1:10">
+    <row r="304" spans="1:8">
       <c r="A304" s="1">
         <v>16</v>
       </c>
@@ -10052,22 +8282,16 @@
         <v>27.5</v>
       </c>
       <c r="F304">
-        <v>0.37499999999</v>
+        <v>0.5</v>
       </c>
       <c r="G304">
-        <v>0.2041241452320126</v>
+        <v>1</v>
       </c>
       <c r="H304">
-        <v>0.5</v>
-      </c>
-      <c r="I304">
-        <v>1</v>
-      </c>
-      <c r="J304">
         <v>0.6931471805599453</v>
       </c>
     </row>
-    <row r="305" spans="1:10">
+    <row r="305" spans="1:8">
       <c r="A305" s="1">
         <v>15</v>
       </c>
@@ -10084,22 +8308,16 @@
         <v>27.75</v>
       </c>
       <c r="F305">
-        <v>0.42499999999</v>
+        <v>-0.125</v>
       </c>
       <c r="G305">
-        <v>0.1581138830085213</v>
+        <v>-0.2000000000032</v>
       </c>
       <c r="H305">
-        <v>-0.125</v>
-      </c>
-      <c r="I305">
-        <v>-0.2000000000032</v>
-      </c>
-      <c r="J305">
         <v>-0.2231435513182098</v>
       </c>
     </row>
-    <row r="306" spans="1:10">
+    <row r="306" spans="1:8">
       <c r="A306" s="1">
         <v>14</v>
       </c>
@@ -10116,22 +8334,16 @@
         <v>27.75</v>
       </c>
       <c r="F306">
-        <v>0.39999999999</v>
+        <v>-0.25</v>
       </c>
       <c r="G306">
-        <v>0.1645701471511953</v>
+        <v>-0.50000000001</v>
       </c>
       <c r="H306">
-        <v>-0.25</v>
-      </c>
-      <c r="I306">
-        <v>-0.50000000001</v>
-      </c>
-      <c r="J306">
         <v>-0.6931471805799453</v>
       </c>
     </row>
-    <row r="307" spans="1:10">
+    <row r="307" spans="1:8">
       <c r="A307" s="1">
         <v>13</v>
       </c>
@@ -10148,22 +8360,16 @@
         <v>26.75</v>
       </c>
       <c r="F307">
-        <v>0.29999999999</v>
+        <v>-1</v>
       </c>
       <c r="G307">
-        <v>0.4005204946899732</v>
-      </c>
-      <c r="H307">
         <v>-1</v>
       </c>
-      <c r="I307">
-        <v>-1</v>
-      </c>
-      <c r="J307" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="308" spans="1:10">
+      <c r="H307" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="308" spans="1:8">
       <c r="A308" s="1">
         <v>12</v>
       </c>
@@ -10180,22 +8386,16 @@
         <v>26.125</v>
       </c>
       <c r="F308">
-        <v>0.32499999999</v>
+        <v>1.25</v>
       </c>
       <c r="G308">
-        <v>0.4048319267164124</v>
+        <v>1.666666666644445</v>
       </c>
       <c r="H308">
-        <v>1.25</v>
-      </c>
-      <c r="I308">
-        <v>1.666666666644445</v>
-      </c>
-      <c r="J308">
         <v>0.980829253003393</v>
       </c>
     </row>
-    <row r="309" spans="1:10">
+    <row r="309" spans="1:8">
       <c r="A309" s="1">
         <v>11</v>
       </c>
@@ -10212,22 +8412,16 @@
         <v>25.125</v>
       </c>
       <c r="F309">
-        <v>0.32499999999</v>
+        <v>0</v>
       </c>
       <c r="G309">
-        <v>0.4048319267164124</v>
+        <v>0</v>
       </c>
       <c r="H309">
         <v>0</v>
       </c>
-      <c r="I309">
-        <v>0</v>
-      </c>
-      <c r="J309">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="310" spans="1:10">
+    </row>
+    <row r="310" spans="1:8">
       <c r="A310" s="1">
         <v>10</v>
       </c>
@@ -10244,22 +8438,16 @@
         <v>25.125</v>
       </c>
       <c r="F310">
-        <v>0.36249999999</v>
+        <v>0.375</v>
       </c>
       <c r="G310">
-        <v>0.4387877872300636</v>
+        <v>0.750000000015</v>
       </c>
       <c r="H310">
-        <v>0.375</v>
-      </c>
-      <c r="I310">
-        <v>0.750000000015</v>
-      </c>
-      <c r="J310">
         <v>0.5596157879439941</v>
       </c>
     </row>
-    <row r="311" spans="1:10">
+    <row r="311" spans="1:8">
       <c r="A311" s="1">
         <v>9</v>
       </c>
@@ -10276,22 +8464,16 @@
         <v>25.125</v>
       </c>
       <c r="F311">
-        <v>0.39999999999</v>
+        <v>0</v>
       </c>
       <c r="G311">
-        <v>0.4669641908707651</v>
+        <v>0</v>
       </c>
       <c r="H311">
         <v>0</v>
       </c>
-      <c r="I311">
-        <v>0</v>
-      </c>
-      <c r="J311">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="312" spans="1:10">
+    </row>
+    <row r="312" spans="1:8">
       <c r="A312" s="1">
         <v>8</v>
       </c>
@@ -10308,22 +8490,16 @@
         <v>25.125</v>
       </c>
       <c r="F312">
-        <v>0.44999999999</v>
+        <v>0.125</v>
       </c>
       <c r="G312">
-        <v>0.5041494487418375</v>
+        <v>0.1428571428587755</v>
       </c>
       <c r="H312">
-        <v>0.125</v>
-      </c>
-      <c r="I312">
-        <v>0.1428571428587755</v>
-      </c>
-      <c r="J312">
         <v>0.1335313926259512</v>
       </c>
     </row>
-    <row r="313" spans="1:10">
+    <row r="313" spans="1:8">
       <c r="A313" s="1">
         <v>7</v>
       </c>
@@ -10340,22 +8516,16 @@
         <v>25.125</v>
       </c>
       <c r="F313">
-        <v>0.53749999999</v>
+        <v>0</v>
       </c>
       <c r="G313">
-        <v>0.5172375877894538</v>
+        <v>0</v>
       </c>
       <c r="H313">
         <v>0</v>
       </c>
-      <c r="I313">
-        <v>0</v>
-      </c>
-      <c r="J313">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="314" spans="1:10">
+    </row>
+    <row r="314" spans="1:8">
       <c r="A314" s="1">
         <v>6</v>
       </c>
@@ -10372,22 +8542,16 @@
         <v>25.125</v>
       </c>
       <c r="F314">
-        <v>0.53749999999</v>
+        <v>-0.375</v>
       </c>
       <c r="G314">
-        <v>0.5172375877894538</v>
+        <v>-0.37500000000375</v>
       </c>
       <c r="H314">
-        <v>-0.375</v>
-      </c>
-      <c r="I314">
-        <v>-0.37500000000375</v>
-      </c>
-      <c r="J314">
         <v>-0.4700036292517356</v>
       </c>
     </row>
-    <row r="315" spans="1:10">
+    <row r="315" spans="1:8">
       <c r="A315" s="1">
         <v>5</v>
       </c>
@@ -10404,22 +8568,16 @@
         <v>24.875</v>
       </c>
       <c r="F315">
-        <v>0.52499999999</v>
+        <v>-0.25</v>
       </c>
       <c r="G315">
-        <v>0.5197488709837856</v>
+        <v>-0.4000000000064</v>
       </c>
       <c r="H315">
-        <v>-0.25</v>
-      </c>
-      <c r="I315">
-        <v>-0.4000000000064</v>
-      </c>
-      <c r="J315">
         <v>-0.5108256237766574</v>
       </c>
     </row>
-    <row r="316" spans="1:10">
+    <row r="316" spans="1:8">
       <c r="A316" s="1">
         <v>4</v>
       </c>
@@ -10436,22 +8594,16 @@
         <v>24.875</v>
       </c>
       <c r="F316">
-        <v>0.53749999999</v>
+        <v>0</v>
       </c>
       <c r="G316">
-        <v>0.5138701197773916</v>
+        <v>0</v>
       </c>
       <c r="H316">
         <v>0</v>
       </c>
-      <c r="I316">
-        <v>0</v>
-      </c>
-      <c r="J316">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="317" spans="1:10">
+    </row>
+    <row r="317" spans="1:8">
       <c r="A317" s="1">
         <v>3</v>
       </c>
@@ -10468,22 +8620,16 @@
         <v>24.875</v>
       </c>
       <c r="F317">
-        <v>0.64999999999</v>
+        <v>0</v>
       </c>
       <c r="G317">
-        <v>0.2622022120425936</v>
+        <v>0</v>
       </c>
       <c r="H317">
         <v>0</v>
       </c>
-      <c r="I317">
-        <v>0</v>
-      </c>
-      <c r="J317">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="318" spans="1:10">
+    </row>
+    <row r="318" spans="1:8">
       <c r="A318" s="1">
         <v>2</v>
       </c>
@@ -10500,19 +8646,13 @@
         <v>24.875</v>
       </c>
       <c r="F318">
-        <v>0.59999999999</v>
+        <v>-0.375</v>
       </c>
       <c r="G318">
-        <v>0.3322900339563265</v>
-      </c>
-      <c r="H318">
-        <v>-0.375</v>
-      </c>
-      <c r="I318">
         <v>-1.000000000026667</v>
       </c>
     </row>
-    <row r="319" spans="1:10">
+    <row r="319" spans="1:8">
       <c r="A319" s="1">
         <v>1</v>
       </c>
@@ -10529,22 +8669,16 @@
         <v>24.875</v>
       </c>
       <c r="F319">
-        <v>0.54999999999</v>
+        <v>0</v>
       </c>
       <c r="G319">
-        <v>0.3827894692619018</v>
+        <v>0</v>
       </c>
       <c r="H319">
         <v>0</v>
       </c>
-      <c r="I319">
-        <v>0</v>
-      </c>
-      <c r="J319">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="320" spans="1:10">
+    </row>
+    <row r="320" spans="1:8">
       <c r="A320" s="1">
         <v>0</v>
       </c>
@@ -10561,18 +8695,12 @@
         <v>24.875</v>
       </c>
       <c r="F320">
-        <v>0.46249999999</v>
+        <v>0</v>
       </c>
       <c r="G320">
-        <v>0.3998697704670425</v>
+        <v>0</v>
       </c>
       <c r="H320">
-        <v>0</v>
-      </c>
-      <c r="I320">
-        <v>0</v>
-      </c>
-      <c r="J320">
         <v>0</v>
       </c>
     </row>
